--- a/Trade_statistics.xlsx
+++ b/Trade_statistics.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joche\Documents\GitHub\GVAR_modeling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D0B577-62FF-4223-A462-E114E7CBFC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -56,21 +65,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -81,7 +91,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -91,60 +101,53 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -334,114 +337,119 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AF170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C89" workbookViewId="0">
+      <selection activeCell="L101" sqref="L101"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2">
-        <v>1993.0</v>
+        <v>1993</v>
       </c>
       <c r="D1" s="2">
-        <v>1994.0</v>
+        <v>1994</v>
       </c>
       <c r="E1" s="2">
-        <v>1995.0</v>
+        <v>1995</v>
       </c>
       <c r="F1" s="2">
-        <v>1996.0</v>
+        <v>1996</v>
       </c>
       <c r="G1" s="2">
-        <v>1997.0</v>
+        <v>1997</v>
       </c>
       <c r="H1" s="2">
-        <v>1998.0</v>
+        <v>1998</v>
       </c>
       <c r="I1" s="2">
-        <v>1999.0</v>
+        <v>1999</v>
       </c>
       <c r="J1" s="2">
-        <v>2000.0</v>
+        <v>2000</v>
       </c>
       <c r="K1" s="2">
-        <v>2001.0</v>
+        <v>2001</v>
       </c>
       <c r="L1" s="2">
-        <v>2002.0</v>
+        <v>2002</v>
       </c>
       <c r="M1" s="2">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="N1" s="2">
-        <v>2004.0</v>
+        <v>2004</v>
       </c>
       <c r="O1" s="2">
-        <v>2005.0</v>
+        <v>2005</v>
       </c>
       <c r="P1" s="2">
-        <v>2006.0</v>
+        <v>2006</v>
       </c>
       <c r="Q1" s="2">
-        <v>2007.0</v>
+        <v>2007</v>
       </c>
       <c r="R1" s="2">
-        <v>2008.0</v>
+        <v>2008</v>
       </c>
       <c r="S1" s="2">
-        <v>2009.0</v>
+        <v>2009</v>
       </c>
       <c r="T1" s="2">
-        <v>2010.0</v>
+        <v>2010</v>
       </c>
       <c r="U1" s="2">
-        <v>2011.0</v>
+        <v>2011</v>
       </c>
       <c r="V1" s="2">
-        <v>2012.0</v>
+        <v>2012</v>
       </c>
       <c r="W1" s="2">
-        <v>2013.0</v>
+        <v>2013</v>
       </c>
       <c r="X1" s="2">
-        <v>2014.0</v>
+        <v>2014</v>
       </c>
       <c r="Y1" s="2">
-        <v>2015.0</v>
+        <v>2015</v>
       </c>
       <c r="Z1" s="2">
-        <v>2016.0</v>
+        <v>2016</v>
       </c>
       <c r="AA1" s="2">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="AB1" s="2">
-        <v>2018.0</v>
+        <v>2018</v>
       </c>
       <c r="AC1" s="2">
-        <v>2019.0</v>
+        <v>2019</v>
       </c>
       <c r="AD1" s="2">
-        <v>2020.0</v>
+        <v>2020</v>
       </c>
       <c r="AE1" s="2">
-        <v>2021.0</v>
+        <v>2021</v>
       </c>
       <c r="AF1" s="2">
-        <v>2022.0</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -449,102 +457,102 @@
         <v>0</v>
       </c>
       <c r="C2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>258.54</v>
+        <v>258.54000000000002</v>
       </c>
       <c r="D3" s="5">
         <v>200.19</v>
@@ -553,16 +561,16 @@
         <v>241.29</v>
       </c>
       <c r="F3" s="5">
-        <v>308.28</v>
+        <v>308.27999999999997</v>
       </c>
       <c r="G3" s="5">
-        <v>276.22</v>
+        <v>276.22000000000003</v>
       </c>
       <c r="H3" s="5">
         <v>263.27</v>
       </c>
       <c r="I3" s="5">
-        <v>240.0</v>
+        <v>240</v>
       </c>
       <c r="J3" s="5">
         <v>324.02</v>
@@ -628,13 +636,13 @@
         <v>546.37</v>
       </c>
       <c r="AE3" s="5">
-        <v>1241.9</v>
+        <v>1241.9000000000001</v>
       </c>
       <c r="AF3" s="5">
         <v>1821.13</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
         <v>2</v>
@@ -679,7 +687,7 @@
         <v>1368.88</v>
       </c>
       <c r="P4" s="5">
-        <v>1211.9</v>
+        <v>1211.9000000000001</v>
       </c>
       <c r="Q4" s="5">
         <v>1519.7</v>
@@ -706,13 +714,13 @@
         <v>1102.04</v>
       </c>
       <c r="Y4" s="5">
-        <v>1158.89</v>
+        <v>1158.8900000000001</v>
       </c>
       <c r="Z4" s="5">
         <v>1380.88</v>
       </c>
       <c r="AA4" s="5">
-        <v>1245.34</v>
+        <v>1245.3399999999999</v>
       </c>
       <c r="AB4" s="5">
         <v>1436.19</v>
@@ -730,13 +738,13 @@
         <v>1696.29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>529.93</v>
+        <v>529.92999999999995</v>
       </c>
       <c r="D5" s="5">
         <v>555.86</v>
@@ -757,10 +765,10 @@
         <v>573.39</v>
       </c>
       <c r="J5" s="5">
-        <v>536.05</v>
+        <v>536.04999999999995</v>
       </c>
       <c r="K5" s="5">
-        <v>635.18</v>
+        <v>635.17999999999995</v>
       </c>
       <c r="L5" s="5">
         <v>793.75</v>
@@ -796,7 +804,7 @@
         <v>1120.17</v>
       </c>
       <c r="W5" s="5">
-        <v>1228.61</v>
+        <v>1228.6099999999999</v>
       </c>
       <c r="X5" s="5">
         <v>1026.17</v>
@@ -823,10 +831,10 @@
         <v>1415.59</v>
       </c>
       <c r="AF5" s="5">
-        <v>2166.24</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>2166.2399999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="4" t="s">
         <v>4</v>
@@ -868,10 +876,10 @@
         <v>985.23</v>
       </c>
       <c r="O6" s="5">
-        <v>1056.13</v>
+        <v>1056.1300000000001</v>
       </c>
       <c r="P6" s="5">
-        <v>1066.09</v>
+        <v>1066.0899999999999</v>
       </c>
       <c r="Q6" s="5">
         <v>1186.24</v>
@@ -889,7 +897,7 @@
         <v>2388.94</v>
       </c>
       <c r="V6" s="5">
-        <v>2056.18</v>
+        <v>2056.1799999999998</v>
       </c>
       <c r="W6" s="5">
         <v>1861.5</v>
@@ -922,7 +930,7 @@
         <v>3619.32</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>5</v>
@@ -952,10 +960,10 @@
         <v>1059.69</v>
       </c>
       <c r="K7" s="5">
-        <v>1130.09</v>
+        <v>1130.0899999999999</v>
       </c>
       <c r="L7" s="5">
-        <v>1092.09</v>
+        <v>1092.0899999999999</v>
       </c>
       <c r="M7" s="5">
         <v>1030.93</v>
@@ -964,7 +972,7 @@
         <v>1021.05</v>
       </c>
       <c r="O7" s="5">
-        <v>1151.89</v>
+        <v>1151.8900000000001</v>
       </c>
       <c r="P7" s="5">
         <v>1414.8</v>
@@ -979,10 +987,10 @@
         <v>783.49</v>
       </c>
       <c r="T7" s="5">
-        <v>1047.91</v>
+        <v>1047.9100000000001</v>
       </c>
       <c r="U7" s="5">
-        <v>1301.15</v>
+        <v>1301.1500000000001</v>
       </c>
       <c r="V7" s="5">
         <v>873.19</v>
@@ -991,16 +999,16 @@
         <v>682.44</v>
       </c>
       <c r="X7" s="5">
-        <v>578.57</v>
+        <v>578.57000000000005</v>
       </c>
       <c r="Y7" s="5">
         <v>543.89</v>
       </c>
       <c r="Z7" s="5">
-        <v>1188.12</v>
+        <v>1188.1199999999999</v>
       </c>
       <c r="AA7" s="5">
-        <v>528.31</v>
+        <v>528.30999999999995</v>
       </c>
       <c r="AB7" s="5">
         <v>640.02</v>
@@ -1018,7 +1026,7 @@
         <v>857.22</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
         <v>6</v>
@@ -1075,7 +1083,7 @@
         <v>29474.87</v>
       </c>
       <c r="T8" s="5">
-        <v>40074.72</v>
+        <v>40074.720000000001</v>
       </c>
       <c r="U8" s="5">
         <v>52103.4</v>
@@ -1099,7 +1107,7 @@
         <v>33516.57</v>
       </c>
       <c r="AB8" s="5">
-        <v>41186.37</v>
+        <v>41186.370000000003</v>
       </c>
       <c r="AC8" s="5">
         <v>39967.56</v>
@@ -1114,7 +1122,7 @@
         <v>79391.63</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -1132,7 +1140,7 @@
         <v>5726.01</v>
       </c>
       <c r="G9" s="5">
-        <v>4977.94</v>
+        <v>4977.9399999999996</v>
       </c>
       <c r="H9" s="5">
         <v>3852.01</v>
@@ -1144,7 +1152,7 @@
         <v>4741.66</v>
       </c>
       <c r="K9" s="5">
-        <v>4928.86</v>
+        <v>4928.8599999999997</v>
       </c>
       <c r="L9" s="5">
         <v>5424.57</v>
@@ -1198,7 +1206,7 @@
         <v>17575.55</v>
       </c>
       <c r="AC9" s="5">
-        <v>17253.33</v>
+        <v>17253.330000000002</v>
       </c>
       <c r="AD9" s="5">
         <v>15723.13</v>
@@ -1210,7 +1218,7 @@
         <v>35707.15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="4" t="s">
         <v>8</v>
@@ -1225,7 +1233,7 @@
         <v>3832.88</v>
       </c>
       <c r="F10" s="5">
-        <v>4339.4</v>
+        <v>4339.3999999999996</v>
       </c>
       <c r="G10" s="5">
         <v>4539.33</v>
@@ -1246,7 +1254,7 @@
         <v>4238.62</v>
       </c>
       <c r="M10" s="5">
-        <v>5220.0</v>
+        <v>5220</v>
       </c>
       <c r="N10" s="5">
         <v>6360.62</v>
@@ -1306,7 +1314,7 @@
         <v>8932.69</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>9</v>
@@ -1330,7 +1338,7 @@
         <v>671.63</v>
       </c>
       <c r="I11" s="5">
-        <v>581.3</v>
+        <v>581.29999999999995</v>
       </c>
       <c r="J11" s="5">
         <v>729.18</v>
@@ -1399,10 +1407,10 @@
         <v>1192.47</v>
       </c>
       <c r="AF11" s="5">
-        <v>1230.84</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1230.8399999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="4" t="s">
         <v>10</v>
@@ -1429,10 +1437,10 @@
         <v>414.65</v>
       </c>
       <c r="J12" s="5">
-        <v>419.0</v>
+        <v>419</v>
       </c>
       <c r="K12" s="5">
-        <v>422.0</v>
+        <v>422</v>
       </c>
       <c r="L12" s="5">
         <v>375.79</v>
@@ -1456,10 +1464,10 @@
         <v>744.42</v>
       </c>
       <c r="S12" s="5">
-        <v>306.03</v>
+        <v>306.02999999999997</v>
       </c>
       <c r="T12" s="5">
-        <v>654.55</v>
+        <v>654.54999999999995</v>
       </c>
       <c r="U12" s="5">
         <v>954.12</v>
@@ -1489,7 +1497,7 @@
         <v>311.7</v>
       </c>
       <c r="AD12" s="5">
-        <v>320.16</v>
+        <v>320.16000000000003</v>
       </c>
       <c r="AE12" s="5">
         <v>524.59</v>
@@ -1498,7 +1506,7 @@
         <v>1009.24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="4" t="s">
         <v>11</v>
@@ -1525,7 +1533,7 @@
         <v>2383.71</v>
       </c>
       <c r="J13" s="5">
-        <v>2176.76</v>
+        <v>2176.7600000000002</v>
       </c>
       <c r="K13" s="5">
         <v>2655.36</v>
@@ -1585,7 +1593,7 @@
         <v>10483.89</v>
       </c>
       <c r="AD13" s="5">
-        <v>10306.04</v>
+        <v>10306.040000000001</v>
       </c>
       <c r="AE13" s="5">
         <v>3516.55</v>
@@ -1594,7 +1602,7 @@
         <v>2174.66</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="4" t="s">
         <v>12</v>
@@ -1606,7 +1614,7 @@
         <v>3321.02</v>
       </c>
       <c r="E14" s="5">
-        <v>3358.0</v>
+        <v>3358</v>
       </c>
       <c r="F14" s="5">
         <v>3854.66</v>
@@ -1654,7 +1662,7 @@
         <v>8463.86</v>
       </c>
       <c r="U14" s="5">
-        <v>10133.71</v>
+        <v>10133.709999999999</v>
       </c>
       <c r="V14" s="5">
         <v>9724.86</v>
@@ -1675,7 +1683,7 @@
         <v>8997.33</v>
       </c>
       <c r="AB14" s="5">
-        <v>9727.2</v>
+        <v>9727.2000000000007</v>
       </c>
       <c r="AC14" s="5">
         <v>10305.35</v>
@@ -1690,7 +1698,7 @@
         <v>13901.74</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -1728,7 +1736,7 @@
         <v>253.7</v>
       </c>
       <c r="M15" s="5">
-        <v>304.59</v>
+        <v>304.58999999999997</v>
       </c>
       <c r="N15" s="5">
         <v>368.18</v>
@@ -1740,10 +1748,10 @@
         <v>509.44</v>
       </c>
       <c r="Q15" s="5">
-        <v>614.17</v>
+        <v>614.16999999999996</v>
       </c>
       <c r="R15" s="5">
-        <v>1252.85</v>
+        <v>1252.8499999999999</v>
       </c>
       <c r="S15" s="5">
         <v>477.73</v>
@@ -1782,109 +1790,109 @@
         <v>467.02</v>
       </c>
       <c r="AE15" s="5">
-        <v>560.55</v>
+        <v>560.54999999999995</v>
       </c>
       <c r="AF15" s="5">
         <v>734.76</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="4" t="s">
         <v>2</v>
@@ -1902,10 +1910,10 @@
         <v>505.77</v>
       </c>
       <c r="G17" s="5">
-        <v>583.81</v>
+        <v>583.80999999999995</v>
       </c>
       <c r="H17" s="5">
-        <v>544.05</v>
+        <v>544.04999999999995</v>
       </c>
       <c r="I17" s="5">
         <v>513.16</v>
@@ -1929,10 +1937,10 @@
         <v>1944.01</v>
       </c>
       <c r="P17" s="5">
-        <v>2275.32</v>
+        <v>2275.3200000000002</v>
       </c>
       <c r="Q17" s="5">
-        <v>2361.72</v>
+        <v>2361.7199999999998</v>
       </c>
       <c r="R17" s="5">
         <v>1866.17</v>
@@ -1971,7 +1979,7 @@
         <v>3249.15</v>
       </c>
       <c r="AD17" s="5">
-        <v>4220.64</v>
+        <v>4220.6400000000003</v>
       </c>
       <c r="AE17" s="5">
         <v>4919.29</v>
@@ -1980,7 +1988,7 @@
         <v>5382.04</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="4" t="s">
         <v>3</v>
@@ -1992,7 +2000,7 @@
         <v>900.64</v>
       </c>
       <c r="E18" s="5">
-        <v>1038.39</v>
+        <v>1038.3900000000001</v>
       </c>
       <c r="F18" s="5">
         <v>912.32</v>
@@ -2001,7 +2009,7 @@
         <v>1151.46</v>
       </c>
       <c r="H18" s="5">
-        <v>1256.11</v>
+        <v>1256.1099999999999</v>
       </c>
       <c r="I18" s="5">
         <v>1227.28</v>
@@ -2031,7 +2039,7 @@
         <v>3471.97</v>
       </c>
       <c r="R18" s="5">
-        <v>4189.31</v>
+        <v>4189.3100000000004</v>
       </c>
       <c r="S18" s="5">
         <v>2920.57</v>
@@ -2043,7 +2051,7 @@
         <v>4359.28</v>
       </c>
       <c r="V18" s="5">
-        <v>4139.36</v>
+        <v>4139.3599999999997</v>
       </c>
       <c r="W18" s="5">
         <v>3423.35</v>
@@ -2076,7 +2084,7 @@
         <v>3548.53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>4</v>
@@ -2091,7 +2099,7 @@
         <v>2158.19</v>
       </c>
       <c r="F19" s="5">
-        <v>2082.7</v>
+        <v>2082.6999999999998</v>
       </c>
       <c r="G19" s="5">
         <v>2607.79</v>
@@ -2109,7 +2117,7 @@
         <v>2501.91</v>
       </c>
       <c r="L19" s="5">
-        <v>2536.72</v>
+        <v>2536.7199999999998</v>
       </c>
       <c r="M19" s="5">
         <v>3135.78</v>
@@ -2148,7 +2156,7 @@
         <v>6632.73</v>
       </c>
       <c r="Y19" s="5">
-        <v>5178.9</v>
+        <v>5178.8999999999996</v>
       </c>
       <c r="Z19" s="5">
         <v>4860.93</v>
@@ -2163,16 +2171,16 @@
         <v>4673.76</v>
       </c>
       <c r="AD19" s="5">
-        <v>4128.02</v>
+        <v>4128.0200000000004</v>
       </c>
       <c r="AE19" s="5">
-        <v>5038.64</v>
+        <v>5038.6400000000003</v>
       </c>
       <c r="AF19" s="5">
         <v>6267.79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -2220,10 +2228,10 @@
         <v>3829.01</v>
       </c>
       <c r="Q20" s="5">
-        <v>4463.65</v>
+        <v>4463.6499999999996</v>
       </c>
       <c r="R20" s="5">
-        <v>4765.48</v>
+        <v>4765.4799999999996</v>
       </c>
       <c r="S20" s="5">
         <v>3119.57</v>
@@ -2238,7 +2246,7 @@
         <v>4580.72</v>
       </c>
       <c r="W20" s="5">
-        <v>4098.14</v>
+        <v>4098.1400000000003</v>
       </c>
       <c r="X20" s="5">
         <v>4020.78</v>
@@ -2247,7 +2255,7 @@
         <v>3270.23</v>
       </c>
       <c r="Z20" s="5">
-        <v>3322.0</v>
+        <v>3322</v>
       </c>
       <c r="AA20" s="5">
         <v>3561.29</v>
@@ -2265,16 +2273,16 @@
         <v>3890.47</v>
       </c>
       <c r="AF20" s="5">
-        <v>4823.4</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>4823.3999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C21" s="5">
-        <v>2313.0</v>
+        <v>2313</v>
       </c>
       <c r="D21" s="5">
         <v>2574.09</v>
@@ -2301,10 +2309,10 @@
         <v>1986.28</v>
       </c>
       <c r="L21" s="5">
-        <v>2097.95</v>
+        <v>2097.9499999999998</v>
       </c>
       <c r="M21" s="5">
-        <v>2310.55</v>
+        <v>2310.5500000000002</v>
       </c>
       <c r="N21" s="5">
         <v>2767.99</v>
@@ -2364,7 +2372,7 @@
         <v>6603.07</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="4" t="s">
         <v>7</v>
@@ -2400,7 +2408,7 @@
         <v>852.42</v>
       </c>
       <c r="M22" s="5">
-        <v>1223.1</v>
+        <v>1223.0999999999999</v>
       </c>
       <c r="N22" s="5">
         <v>1429.3</v>
@@ -2418,7 +2426,7 @@
         <v>3118.57</v>
       </c>
       <c r="S22" s="5">
-        <v>2608.22</v>
+        <v>2608.2199999999998</v>
       </c>
       <c r="T22" s="5">
         <v>3760.12</v>
@@ -2460,7 +2468,7 @@
         <v>6242.03</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>8</v>
@@ -2469,13 +2477,13 @@
         <v>30.01</v>
       </c>
       <c r="D23" s="5">
-        <v>32.37</v>
+        <v>32.369999999999997</v>
       </c>
       <c r="E23" s="5">
         <v>45.15</v>
       </c>
       <c r="F23" s="5">
-        <v>34.55</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="G23" s="5">
         <v>33.21</v>
@@ -2487,7 +2495,7 @@
         <v>22.72</v>
       </c>
       <c r="J23" s="5">
-        <v>34.45</v>
+        <v>34.450000000000003</v>
       </c>
       <c r="K23" s="5">
         <v>22.7</v>
@@ -2496,7 +2504,7 @@
         <v>30.43</v>
       </c>
       <c r="M23" s="5">
-        <v>36.23</v>
+        <v>36.229999999999997</v>
       </c>
       <c r="N23" s="5">
         <v>51.34</v>
@@ -2508,7 +2516,7 @@
         <v>56.68</v>
       </c>
       <c r="Q23" s="5">
-        <v>72.18</v>
+        <v>72.180000000000007</v>
       </c>
       <c r="R23" s="5">
         <v>81.19</v>
@@ -2526,10 +2534,10 @@
         <v>62.21</v>
       </c>
       <c r="W23" s="5">
-        <v>74.07</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="X23" s="5">
-        <v>69.32</v>
+        <v>69.319999999999993</v>
       </c>
       <c r="Y23" s="5">
         <v>64.2</v>
@@ -2541,13 +2549,13 @@
         <v>83.53</v>
       </c>
       <c r="AB23" s="5">
-        <v>77.07</v>
+        <v>77.069999999999993</v>
       </c>
       <c r="AC23" s="5">
         <v>96.49</v>
       </c>
       <c r="AD23" s="5">
-        <v>80.96</v>
+        <v>80.959999999999994</v>
       </c>
       <c r="AE23" s="5">
         <v>83.45</v>
@@ -2556,7 +2564,7 @@
         <v>116.95</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="4" t="s">
         <v>9</v>
@@ -2595,7 +2603,7 @@
         <v>733.18</v>
       </c>
       <c r="N24" s="5">
-        <v>1035.87</v>
+        <v>1035.8699999999999</v>
       </c>
       <c r="O24" s="5">
         <v>1369.39</v>
@@ -2610,7 +2618,7 @@
         <v>1754.85</v>
       </c>
       <c r="S24" s="5">
-        <v>1265.39</v>
+        <v>1265.3900000000001</v>
       </c>
       <c r="T24" s="5">
         <v>1309.97</v>
@@ -2640,7 +2648,7 @@
         <v>1365.26</v>
       </c>
       <c r="AC24" s="5">
-        <v>1106.11</v>
+        <v>1106.1099999999999</v>
       </c>
       <c r="AD24" s="5">
         <v>979.7</v>
@@ -2652,7 +2660,7 @@
         <v>1725.26</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -2691,7 +2699,7 @@
         <v>1551.58</v>
       </c>
       <c r="N25" s="5">
-        <v>1984.0</v>
+        <v>1984</v>
       </c>
       <c r="O25" s="5">
         <v>2173.1</v>
@@ -2712,7 +2720,7 @@
         <v>3893.77</v>
       </c>
       <c r="U25" s="5">
-        <v>4705.52</v>
+        <v>4705.5200000000004</v>
       </c>
       <c r="V25" s="5">
         <v>3688.73</v>
@@ -2745,10 +2753,10 @@
         <v>5430.47</v>
       </c>
       <c r="AF25" s="5">
-        <v>9760.7</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>9760.7000000000007</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="4" t="s">
         <v>11</v>
@@ -2808,7 +2816,7 @@
         <v>4634.53</v>
       </c>
       <c r="U26" s="5">
-        <v>5229.81</v>
+        <v>5229.8100000000004</v>
       </c>
       <c r="V26" s="5">
         <v>4519.43</v>
@@ -2844,7 +2852,7 @@
         <v>3696.67</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>12</v>
@@ -2853,10 +2861,10 @@
         <v>8025.92</v>
       </c>
       <c r="D27" s="5">
-        <v>8968.96</v>
+        <v>8968.9599999999991</v>
       </c>
       <c r="E27" s="5">
-        <v>8799.21</v>
+        <v>8799.2099999999991</v>
       </c>
       <c r="F27" s="5">
         <v>9312.92</v>
@@ -2865,7 +2873,7 @@
         <v>9407.92</v>
       </c>
       <c r="H27" s="5">
-        <v>9898.8</v>
+        <v>9898.7999999999993</v>
       </c>
       <c r="I27" s="5">
         <v>10867.58</v>
@@ -2880,7 +2888,7 @@
         <v>15535.24</v>
       </c>
       <c r="M27" s="5">
-        <v>16901.01</v>
+        <v>16901.009999999998</v>
       </c>
       <c r="N27" s="5">
         <v>20341.73</v>
@@ -2895,13 +2903,13 @@
         <v>25342.57</v>
       </c>
       <c r="R27" s="5">
-        <v>27734.72</v>
+        <v>27734.720000000001</v>
       </c>
       <c r="S27" s="5">
         <v>15809.02</v>
       </c>
       <c r="T27" s="5">
-        <v>19466.06</v>
+        <v>19466.060000000001</v>
       </c>
       <c r="U27" s="5">
         <v>25942.95</v>
@@ -2940,7 +2948,7 @@
         <v>38147.64</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>2</v>
       </c>
@@ -2948,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="C28" s="5">
-        <v>581.43</v>
+        <v>581.42999999999995</v>
       </c>
       <c r="D28" s="5">
         <v>620.29</v>
@@ -2963,7 +2971,7 @@
         <v>679.63</v>
       </c>
       <c r="H28" s="5">
-        <v>561.92</v>
+        <v>561.91999999999996</v>
       </c>
       <c r="I28" s="5">
         <v>615.1</v>
@@ -2981,7 +2989,7 @@
         <v>942.88</v>
       </c>
       <c r="N28" s="5">
-        <v>1182.12</v>
+        <v>1182.1199999999999</v>
       </c>
       <c r="O28" s="5">
         <v>1355.44</v>
@@ -3035,16 +3043,16 @@
         <v>1845.37</v>
       </c>
       <c r="AF28" s="5">
-        <v>2407.49</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>2407.4899999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="5">
-        <v>575.31</v>
+        <v>575.30999999999995</v>
       </c>
       <c r="D29" s="5">
         <v>695.93</v>
@@ -3062,7 +3070,7 @@
         <v>854.02</v>
       </c>
       <c r="I29" s="5">
-        <v>567.07</v>
+        <v>567.07000000000005</v>
       </c>
       <c r="J29" s="5">
         <v>694.8</v>
@@ -3089,7 +3097,7 @@
         <v>1412.36</v>
       </c>
       <c r="R29" s="5">
-        <v>2432.74</v>
+        <v>2432.7399999999998</v>
       </c>
       <c r="S29" s="5">
         <v>1425.59</v>
@@ -3104,7 +3112,7 @@
         <v>2609.29</v>
       </c>
       <c r="W29" s="5">
-        <v>2383.82</v>
+        <v>2383.8200000000002</v>
       </c>
       <c r="X29" s="5">
         <v>1972.08</v>
@@ -3134,103 +3142,103 @@
         <v>3125.73</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF30" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>3</v>
@@ -3254,7 +3262,7 @@
         <v>1073.53</v>
       </c>
       <c r="I31" s="5">
-        <v>1220.11</v>
+        <v>1220.1099999999999</v>
       </c>
       <c r="J31" s="5">
         <v>1258.82</v>
@@ -3275,7 +3283,7 @@
         <v>2096.39</v>
       </c>
       <c r="P31" s="5">
-        <v>2541.82</v>
+        <v>2541.8200000000002</v>
       </c>
       <c r="Q31" s="5">
         <v>2921.73</v>
@@ -3308,7 +3316,7 @@
         <v>2575.94</v>
       </c>
       <c r="AA31" s="5">
-        <v>2580.18</v>
+        <v>2580.1799999999998</v>
       </c>
       <c r="AB31" s="5">
         <v>2636.47</v>
@@ -3326,7 +3334,7 @@
         <v>3021.66</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="4" t="s">
         <v>4</v>
@@ -3341,7 +3349,7 @@
         <v>2276.06</v>
       </c>
       <c r="F32" s="5">
-        <v>2303.93</v>
+        <v>2303.9299999999998</v>
       </c>
       <c r="G32" s="5">
         <v>1923.56</v>
@@ -3356,7 +3364,7 @@
         <v>2038.21</v>
       </c>
       <c r="K32" s="5">
-        <v>1853.0</v>
+        <v>1853</v>
       </c>
       <c r="L32" s="5">
         <v>1792.89</v>
@@ -3389,7 +3397,7 @@
         <v>3994.95</v>
       </c>
       <c r="V32" s="5">
-        <v>3578.0</v>
+        <v>3578</v>
       </c>
       <c r="W32" s="5">
         <v>3378.39</v>
@@ -3422,7 +3430,7 @@
         <v>5767.19</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="4" t="s">
         <v>5</v>
@@ -3452,7 +3460,7 @@
         <v>1120.24</v>
       </c>
       <c r="K33" s="5">
-        <v>1032.13</v>
+        <v>1032.1300000000001</v>
       </c>
       <c r="L33" s="5">
         <v>911.76</v>
@@ -3482,7 +3490,7 @@
         <v>1861.98</v>
       </c>
       <c r="U33" s="5">
-        <v>1992.0</v>
+        <v>1992</v>
       </c>
       <c r="V33" s="5">
         <v>1709.87</v>
@@ -3506,7 +3514,7 @@
         <v>2349.85</v>
       </c>
       <c r="AC33" s="5">
-        <v>2395.51</v>
+        <v>2395.5100000000002</v>
       </c>
       <c r="AD33" s="5">
         <v>2752.89</v>
@@ -3518,7 +3526,7 @@
         <v>2178.73</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="4" t="s">
         <v>6</v>
@@ -3539,7 +3547,7 @@
         <v>7250.38</v>
       </c>
       <c r="H34" s="5">
-        <v>4787.69</v>
+        <v>4787.6899999999996</v>
       </c>
       <c r="I34" s="5">
         <v>5253.77</v>
@@ -3548,7 +3556,7 @@
         <v>5935.52</v>
       </c>
       <c r="K34" s="5">
-        <v>5202.85</v>
+        <v>5202.8500000000004</v>
       </c>
       <c r="L34" s="5">
         <v>5148.67</v>
@@ -3563,19 +3571,19 @@
         <v>7580.88</v>
       </c>
       <c r="P34" s="5">
-        <v>8312.87</v>
+        <v>8312.8700000000008</v>
       </c>
       <c r="Q34" s="5">
         <v>8598.34</v>
       </c>
       <c r="R34" s="5">
-        <v>10418.62</v>
+        <v>10418.620000000001</v>
       </c>
       <c r="S34" s="5">
         <v>7292.25</v>
       </c>
       <c r="T34" s="5">
-        <v>8932.21</v>
+        <v>8932.2099999999991</v>
       </c>
       <c r="U34" s="5">
         <v>10786.26</v>
@@ -3596,7 +3604,7 @@
         <v>8101.67</v>
       </c>
       <c r="AA34" s="5">
-        <v>9104.71</v>
+        <v>9104.7099999999991</v>
       </c>
       <c r="AB34" s="5">
         <v>9965.84</v>
@@ -3614,7 +3622,7 @@
         <v>13823.63</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="4" t="s">
         <v>7</v>
@@ -3656,7 +3664,7 @@
         <v>1711.59</v>
       </c>
       <c r="O35" s="5">
-        <v>2334.82</v>
+        <v>2334.8200000000002</v>
       </c>
       <c r="P35" s="5">
         <v>2899.03</v>
@@ -3710,7 +3718,7 @@
         <v>6662.48</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="4" t="s">
         <v>8</v>
@@ -3725,10 +3733,10 @@
         <v>126.81</v>
       </c>
       <c r="F36" s="5">
-        <v>148.89</v>
+        <v>148.88999999999999</v>
       </c>
       <c r="G36" s="5">
-        <v>154.83</v>
+        <v>154.83000000000001</v>
       </c>
       <c r="H36" s="5">
         <v>112.74</v>
@@ -3752,7 +3760,7 @@
         <v>338.94</v>
       </c>
       <c r="O36" s="5">
-        <v>296.16</v>
+        <v>296.16000000000003</v>
       </c>
       <c r="P36" s="5">
         <v>338.87</v>
@@ -3764,7 +3772,7 @@
         <v>431.58</v>
       </c>
       <c r="S36" s="5">
-        <v>266.54</v>
+        <v>266.54000000000002</v>
       </c>
       <c r="T36" s="5">
         <v>312.14</v>
@@ -3797,7 +3805,7 @@
         <v>374.65</v>
       </c>
       <c r="AD36" s="5">
-        <v>282.84</v>
+        <v>282.83999999999997</v>
       </c>
       <c r="AE36" s="5">
         <v>347.62</v>
@@ -3806,7 +3814,7 @@
         <v>500.76</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="4" t="s">
         <v>9</v>
@@ -3818,7 +3826,7 @@
         <v>158.37</v>
       </c>
       <c r="E37" s="5">
-        <v>157.64</v>
+        <v>157.63999999999999</v>
       </c>
       <c r="F37" s="5">
         <v>153.18</v>
@@ -3833,7 +3841,7 @@
         <v>137.43</v>
       </c>
       <c r="J37" s="5">
-        <v>160.33</v>
+        <v>160.33000000000001</v>
       </c>
       <c r="K37" s="5">
         <v>122.19</v>
@@ -3851,7 +3859,7 @@
         <v>375.58</v>
       </c>
       <c r="P37" s="5">
-        <v>578.55</v>
+        <v>578.54999999999995</v>
       </c>
       <c r="Q37" s="5">
         <v>731.81</v>
@@ -3887,10 +3895,10 @@
         <v>270.06</v>
       </c>
       <c r="AB37" s="5">
-        <v>317.04</v>
+        <v>317.04000000000002</v>
       </c>
       <c r="AC37" s="5">
-        <v>267.34</v>
+        <v>267.33999999999997</v>
       </c>
       <c r="AD37" s="5">
         <v>233.21</v>
@@ -3902,7 +3910,7 @@
         <v>363.17</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="4" t="s">
         <v>10</v>
@@ -3935,7 +3943,7 @@
         <v>522.74</v>
       </c>
       <c r="L38" s="5">
-        <v>582.55</v>
+        <v>582.54999999999995</v>
       </c>
       <c r="M38" s="5">
         <v>598.1</v>
@@ -3950,7 +3958,7 @@
         <v>1048.2</v>
       </c>
       <c r="Q38" s="5">
-        <v>1141.9</v>
+        <v>1141.9000000000001</v>
       </c>
       <c r="R38" s="5">
         <v>1071.93</v>
@@ -3998,7 +4006,7 @@
         <v>2340.69</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="4" t="s">
         <v>11</v>
@@ -4094,7 +4102,7 @@
         <v>14009.69</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="4" t="s">
         <v>12</v>
@@ -4103,13 +4111,13 @@
         <v>114447.96</v>
       </c>
       <c r="D40" s="5">
-        <v>133111.68</v>
+        <v>133111.67999999999</v>
       </c>
       <c r="E40" s="5">
-        <v>152895.83</v>
+        <v>152895.82999999999</v>
       </c>
       <c r="F40" s="5">
-        <v>164761.42</v>
+        <v>164761.42000000001</v>
       </c>
       <c r="G40" s="5">
         <v>177317.18</v>
@@ -4142,13 +4150,13 @@
         <v>316649.36</v>
       </c>
       <c r="Q40" s="5">
-        <v>331756.0</v>
+        <v>331756</v>
       </c>
       <c r="R40" s="5">
         <v>354656.28</v>
       </c>
       <c r="S40" s="5">
-        <v>237672.0</v>
+        <v>237672</v>
       </c>
       <c r="T40" s="5">
         <v>290070.61</v>
@@ -4166,13 +4174,13 @@
         <v>364940.73</v>
       </c>
       <c r="Y40" s="5">
-        <v>313259.46</v>
+        <v>313259.46000000002</v>
       </c>
       <c r="Z40" s="5">
         <v>297540.49</v>
       </c>
       <c r="AA40" s="5">
-        <v>320025.71</v>
+        <v>320025.71000000002</v>
       </c>
       <c r="AB40" s="5">
         <v>337813.85</v>
@@ -4181,7 +4189,7 @@
         <v>337582.98</v>
       </c>
       <c r="AD40" s="5">
-        <v>287075.59</v>
+        <v>287075.59000000003</v>
       </c>
       <c r="AE40" s="5">
         <v>380011.05</v>
@@ -4190,7 +4198,7 @@
         <v>459928.59</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>3</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>862.56</v>
       </c>
       <c r="D41" s="5">
-        <v>1045.11</v>
+        <v>1045.1099999999999</v>
       </c>
       <c r="E41" s="5">
         <v>1275.94</v>
@@ -4216,10 +4224,10 @@
         <v>1233.19</v>
       </c>
       <c r="I41" s="5">
-        <v>1285.15</v>
+        <v>1285.1500000000001</v>
       </c>
       <c r="J41" s="5">
-        <v>1263.84</v>
+        <v>1263.8399999999999</v>
       </c>
       <c r="K41" s="5">
         <v>1252.51</v>
@@ -4288,7 +4296,7 @@
         <v>3525.22</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="4" t="s">
         <v>1</v>
@@ -4327,7 +4335,7 @@
         <v>1865.22</v>
       </c>
       <c r="N42" s="5">
-        <v>2293.95</v>
+        <v>2293.9499999999998</v>
       </c>
       <c r="O42" s="5">
         <v>2843.57</v>
@@ -4339,13 +4347,13 @@
         <v>4255.13</v>
       </c>
       <c r="R42" s="5">
-        <v>5115.44</v>
+        <v>5115.4399999999996</v>
       </c>
       <c r="S42" s="5">
         <v>3564.93</v>
       </c>
       <c r="T42" s="5">
-        <v>4893.56</v>
+        <v>4893.5600000000004</v>
       </c>
       <c r="U42" s="5">
         <v>5726.98</v>
@@ -4366,13 +4374,13 @@
         <v>5022.7</v>
       </c>
       <c r="AA42" s="5">
-        <v>5013.06</v>
+        <v>5013.0600000000004</v>
       </c>
       <c r="AB42" s="5">
         <v>5631.57</v>
       </c>
       <c r="AC42" s="5">
-        <v>4859.65</v>
+        <v>4859.6499999999996</v>
       </c>
       <c r="AD42" s="5">
         <v>3532.31</v>
@@ -4384,7 +4392,7 @@
         <v>4230.22</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="4" t="s">
         <v>2</v>
@@ -4477,112 +4485,112 @@
         <v>4061.56</v>
       </c>
       <c r="AF43" s="5">
-        <v>4302.73</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>4302.7299999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE44" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5">
-        <v>36084.2</v>
+        <v>36084.199999999997</v>
       </c>
       <c r="D45" s="5">
         <v>39910.31</v>
@@ -4618,7 +4626,7 @@
         <v>67934.42</v>
       </c>
       <c r="O45" s="5">
-        <v>68124.71</v>
+        <v>68124.710000000006</v>
       </c>
       <c r="P45" s="5">
         <v>77061.63</v>
@@ -4630,7 +4638,7 @@
         <v>96922.01</v>
       </c>
       <c r="S45" s="5">
-        <v>77228.21</v>
+        <v>77228.210000000006</v>
       </c>
       <c r="T45" s="5">
         <v>84583.12</v>
@@ -4651,7 +4659,7 @@
         <v>80175.37</v>
       </c>
       <c r="Z45" s="5">
-        <v>79996.18</v>
+        <v>79996.179999999993</v>
       </c>
       <c r="AA45" s="5">
         <v>78517.91</v>
@@ -4666,13 +4674,13 @@
         <v>71072.53</v>
       </c>
       <c r="AE45" s="5">
-        <v>83482.76</v>
+        <v>83482.759999999995</v>
       </c>
       <c r="AF45" s="5">
         <v>84557.02</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="4" t="s">
         <v>5</v>
@@ -4696,7 +4704,7 @@
         <v>27457.02</v>
       </c>
       <c r="I46" s="5">
-        <v>29468.8</v>
+        <v>29468.799999999999</v>
       </c>
       <c r="J46" s="5">
         <v>28439.23</v>
@@ -4735,16 +4743,16 @@
         <v>48196.27</v>
       </c>
       <c r="V46" s="5">
-        <v>41767.45</v>
+        <v>41767.449999999997</v>
       </c>
       <c r="W46" s="5">
         <v>40898.32</v>
       </c>
       <c r="X46" s="5">
-        <v>41888.98</v>
+        <v>41888.980000000003</v>
       </c>
       <c r="Y46" s="5">
-        <v>35909.55</v>
+        <v>35909.550000000003</v>
       </c>
       <c r="Z46" s="5">
         <v>36217.47</v>
@@ -4765,10 +4773,10 @@
         <v>46699.23</v>
       </c>
       <c r="AF46" s="5">
-        <v>56580.64</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>56580.639999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="4" t="s">
         <v>6</v>
@@ -4789,16 +4797,16 @@
         <v>4872.32</v>
       </c>
       <c r="H47" s="5">
-        <v>4659.1</v>
+        <v>4659.1000000000004</v>
       </c>
       <c r="I47" s="5">
-        <v>4612.14</v>
+        <v>4612.1400000000003</v>
       </c>
       <c r="J47" s="5">
-        <v>5041.0</v>
+        <v>5041</v>
       </c>
       <c r="K47" s="5">
-        <v>4919.73</v>
+        <v>4919.7299999999996</v>
       </c>
       <c r="L47" s="5">
         <v>5318.53</v>
@@ -4828,16 +4836,16 @@
         <v>7905.77</v>
       </c>
       <c r="U47" s="5">
-        <v>9163.87</v>
+        <v>9163.8700000000008</v>
       </c>
       <c r="V47" s="5">
         <v>9596.66</v>
       </c>
       <c r="W47" s="5">
-        <v>9136.45</v>
+        <v>9136.4500000000007</v>
       </c>
       <c r="X47" s="5">
-        <v>9076.46</v>
+        <v>9076.4599999999991</v>
       </c>
       <c r="Y47" s="5">
         <v>7026.94</v>
@@ -4864,7 +4872,7 @@
         <v>6703.91</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="4" t="s">
         <v>7</v>
@@ -4909,13 +4917,13 @@
         <v>2964.92</v>
       </c>
       <c r="P48" s="5">
-        <v>3625.0</v>
+        <v>3625</v>
       </c>
       <c r="Q48" s="5">
-        <v>4128.98</v>
+        <v>4128.9799999999996</v>
       </c>
       <c r="R48" s="5">
-        <v>4453.31</v>
+        <v>4453.3100000000004</v>
       </c>
       <c r="S48" s="5">
         <v>3683.95</v>
@@ -4960,7 +4968,7 @@
         <v>6166.58</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="4" t="s">
         <v>8</v>
@@ -4984,7 +4992,7 @@
         <v>165.17</v>
       </c>
       <c r="I49" s="5">
-        <v>292.0</v>
+        <v>292</v>
       </c>
       <c r="J49" s="5">
         <v>219.9</v>
@@ -5014,7 +5022,7 @@
         <v>447.17</v>
       </c>
       <c r="S49" s="5">
-        <v>281.46</v>
+        <v>281.45999999999998</v>
       </c>
       <c r="T49" s="5">
         <v>318.73</v>
@@ -5056,13 +5064,13 @@
         <v>560.54</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C50" s="5">
-        <v>589.3</v>
+        <v>589.29999999999995</v>
       </c>
       <c r="D50" s="5">
         <v>825.69</v>
@@ -5077,7 +5085,7 @@
         <v>1009.21</v>
       </c>
       <c r="H50" s="5">
-        <v>1151.59</v>
+        <v>1151.5899999999999</v>
       </c>
       <c r="I50" s="5">
         <v>1013.69</v>
@@ -5104,10 +5112,10 @@
         <v>2104.29</v>
       </c>
       <c r="Q50" s="5">
-        <v>2215.01</v>
+        <v>2215.0100000000002</v>
       </c>
       <c r="R50" s="5">
-        <v>2395.68</v>
+        <v>2395.6799999999998</v>
       </c>
       <c r="S50" s="5">
         <v>1833.61</v>
@@ -5122,7 +5130,7 @@
         <v>2508.34</v>
       </c>
       <c r="W50" s="5">
-        <v>2496.07</v>
+        <v>2496.0700000000002</v>
       </c>
       <c r="X50" s="5">
         <v>2675.72</v>
@@ -5143,7 +5151,7 @@
         <v>1908.52</v>
       </c>
       <c r="AD50" s="5">
-        <v>1520.0</v>
+        <v>1520</v>
       </c>
       <c r="AE50" s="5">
         <v>1888.85</v>
@@ -5152,7 +5160,7 @@
         <v>1889.17</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="4" t="s">
         <v>10</v>
@@ -5164,7 +5172,7 @@
         <v>16698.57</v>
       </c>
       <c r="E51" s="5">
-        <v>20855.17</v>
+        <v>20855.169999999998</v>
       </c>
       <c r="F51" s="5">
         <v>22188.28</v>
@@ -5188,7 +5196,7 @@
         <v>29798.39</v>
       </c>
       <c r="M51" s="5">
-        <v>37605.41</v>
+        <v>37605.410000000003</v>
       </c>
       <c r="N51" s="5">
         <v>42797.05</v>
@@ -5209,7 +5217,7 @@
         <v>37783.26</v>
       </c>
       <c r="T51" s="5">
-        <v>38923.3</v>
+        <v>38923.300000000003</v>
       </c>
       <c r="U51" s="5">
         <v>43186.14</v>
@@ -5218,10 +5226,10 @@
         <v>38180.61</v>
       </c>
       <c r="W51" s="5">
-        <v>39158.95</v>
+        <v>39158.949999999997</v>
       </c>
       <c r="X51" s="5">
-        <v>41367.13</v>
+        <v>41367.129999999997</v>
       </c>
       <c r="Y51" s="5">
         <v>36842.57</v>
@@ -5242,13 +5250,13 @@
         <v>35885.96</v>
       </c>
       <c r="AE51" s="5">
-        <v>43946.88</v>
+        <v>43946.879999999997</v>
       </c>
       <c r="AF51" s="5">
         <v>46963.08</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="4" t="s">
         <v>11</v>
@@ -5275,7 +5283,7 @@
         <v>33117.85</v>
       </c>
       <c r="J52" s="5">
-        <v>31093.04</v>
+        <v>31093.040000000001</v>
       </c>
       <c r="K52" s="5">
         <v>31377.74</v>
@@ -5284,7 +5292,7 @@
         <v>32619.64</v>
       </c>
       <c r="M52" s="5">
-        <v>36925.27</v>
+        <v>36925.269999999997</v>
       </c>
       <c r="N52" s="5">
         <v>42366.62</v>
@@ -5293,7 +5301,7 @@
         <v>38573.42</v>
       </c>
       <c r="P52" s="5">
-        <v>41110.59</v>
+        <v>41110.589999999997</v>
       </c>
       <c r="Q52" s="5">
         <v>45439.66</v>
@@ -5317,7 +5325,7 @@
         <v>39882.32</v>
       </c>
       <c r="X52" s="5">
-        <v>41098.12</v>
+        <v>41098.120000000003</v>
       </c>
       <c r="Y52" s="5">
         <v>35809.65</v>
@@ -5326,7 +5334,7 @@
         <v>35225.14</v>
       </c>
       <c r="AA52" s="5">
-        <v>35712.84</v>
+        <v>35712.839999999997</v>
       </c>
       <c r="AB52" s="5">
         <v>39018.94</v>
@@ -5335,16 +5343,16 @@
         <v>38930.9</v>
       </c>
       <c r="AD52" s="5">
-        <v>31261.36</v>
+        <v>31261.360000000001</v>
       </c>
       <c r="AE52" s="5">
-        <v>33610.72</v>
+        <v>33610.720000000001</v>
       </c>
       <c r="AF52" s="5">
         <v>35204.71</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="4" t="s">
         <v>12</v>
@@ -5386,7 +5394,7 @@
         <v>30326.29</v>
       </c>
       <c r="O53" s="5">
-        <v>32954.8</v>
+        <v>32954.800000000003</v>
       </c>
       <c r="P53" s="5">
         <v>32629.58</v>
@@ -5395,7 +5403,7 @@
         <v>34126.35</v>
       </c>
       <c r="R53" s="5">
-        <v>35253.27</v>
+        <v>35253.269999999997</v>
       </c>
       <c r="S53" s="5">
         <v>27367.89</v>
@@ -5407,16 +5415,16 @@
         <v>32902.65</v>
       </c>
       <c r="V53" s="5">
-        <v>34732.45</v>
+        <v>34732.449999999997</v>
       </c>
       <c r="W53" s="5">
         <v>36174.01</v>
       </c>
       <c r="X53" s="5">
-        <v>36767.02</v>
+        <v>36767.019999999997</v>
       </c>
       <c r="Y53" s="5">
-        <v>36552.24</v>
+        <v>36552.239999999998</v>
       </c>
       <c r="Z53" s="5">
         <v>36557.35</v>
@@ -5434,13 +5442,13 @@
         <v>37401.93</v>
       </c>
       <c r="AE53" s="5">
-        <v>41515.37</v>
+        <v>41515.370000000003</v>
       </c>
       <c r="AF53" s="5">
         <v>49104.68</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>4</v>
       </c>
@@ -5511,10 +5519,10 @@
         <v>11405.07</v>
       </c>
       <c r="X54" s="5">
-        <v>10459.7</v>
+        <v>10459.700000000001</v>
       </c>
       <c r="Y54" s="5">
-        <v>9446.62</v>
+        <v>9446.6200000000008</v>
       </c>
       <c r="Z54" s="5">
         <v>10043.44</v>
@@ -5538,7 +5546,7 @@
         <v>12407.04</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="4" t="s">
         <v>1</v>
@@ -5562,13 +5570,13 @@
         <v>5511.26</v>
       </c>
       <c r="I55" s="5">
-        <v>4888.86</v>
+        <v>4888.8599999999997</v>
       </c>
       <c r="J55" s="5">
         <v>4621.92</v>
       </c>
       <c r="K55" s="5">
-        <v>5103.81</v>
+        <v>5103.8100000000004</v>
       </c>
       <c r="L55" s="5">
         <v>4656.43</v>
@@ -5616,7 +5624,7 @@
         <v>9427.39</v>
       </c>
       <c r="AA55" s="5">
-        <v>9586.97</v>
+        <v>9586.9699999999993</v>
       </c>
       <c r="AB55" s="5">
         <v>11161.85</v>
@@ -5634,7 +5642,7 @@
         <v>13513.2</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="4" t="s">
         <v>2</v>
@@ -5685,7 +5693,7 @@
         <v>8653.82</v>
       </c>
       <c r="R56" s="5">
-        <v>9187.37</v>
+        <v>9187.3700000000008</v>
       </c>
       <c r="S56" s="5">
         <v>7266.02</v>
@@ -5700,7 +5708,7 @@
         <v>11427.28</v>
       </c>
       <c r="W56" s="5">
-        <v>11760.0</v>
+        <v>11760</v>
       </c>
       <c r="X56" s="5">
         <v>11616.27</v>
@@ -5709,7 +5717,7 @@
         <v>11087.75</v>
       </c>
       <c r="Z56" s="5">
-        <v>10567.0</v>
+        <v>10567</v>
       </c>
       <c r="AA56" s="5">
         <v>11077.68</v>
@@ -5730,7 +5738,7 @@
         <v>13364.1</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="4" t="s">
         <v>3</v>
@@ -5751,7 +5759,7 @@
         <v>54526.07</v>
       </c>
       <c r="H57" s="5">
-        <v>60224.64</v>
+        <v>60224.639999999999</v>
       </c>
       <c r="I57" s="5">
         <v>61535.82</v>
@@ -5793,7 +5801,7 @@
         <v>141144.59</v>
       </c>
       <c r="V57" s="5">
-        <v>131712.27</v>
+        <v>131712.26999999999</v>
       </c>
       <c r="W57" s="5">
         <v>131833.1</v>
@@ -5826,103 +5834,103 @@
         <v>122029.06</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF58" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="4" t="s">
         <v>5</v>
@@ -5934,19 +5942,19 @@
         <v>31673.91</v>
       </c>
       <c r="E59" s="5">
-        <v>38193.77</v>
+        <v>38193.769999999997</v>
       </c>
       <c r="F59" s="5">
-        <v>38086.13</v>
+        <v>38086.129999999997</v>
       </c>
       <c r="G59" s="5">
-        <v>37745.09</v>
+        <v>37745.089999999997</v>
       </c>
       <c r="H59" s="5">
         <v>40037.67</v>
       </c>
       <c r="I59" s="5">
-        <v>39980.41</v>
+        <v>39980.410000000003</v>
       </c>
       <c r="J59" s="5">
         <v>41501.24</v>
@@ -5961,13 +5969,13 @@
         <v>54785.72</v>
       </c>
       <c r="N59" s="5">
-        <v>64008.16</v>
+        <v>64008.160000000003</v>
       </c>
       <c r="O59" s="5">
-        <v>66382.56</v>
+        <v>66382.559999999998</v>
       </c>
       <c r="P59" s="5">
-        <v>73868.26</v>
+        <v>73868.259999999995</v>
       </c>
       <c r="Q59" s="5">
         <v>88238.73</v>
@@ -6018,7 +6026,7 @@
         <v>91968.43</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="4" t="s">
         <v>6</v>
@@ -6063,13 +6071,13 @@
         <v>16526.13</v>
       </c>
       <c r="P60" s="5">
-        <v>17156.26</v>
+        <v>17156.259999999998</v>
       </c>
       <c r="Q60" s="5">
         <v>17794.91</v>
       </c>
       <c r="R60" s="5">
-        <v>18701.85</v>
+        <v>18701.849999999999</v>
       </c>
       <c r="S60" s="5">
         <v>15175.68</v>
@@ -6093,7 +6101,7 @@
         <v>19152.86</v>
       </c>
       <c r="Z60" s="5">
-        <v>20488.06</v>
+        <v>20488.060000000001</v>
       </c>
       <c r="AA60" s="5">
         <v>22559.47</v>
@@ -6114,7 +6122,7 @@
         <v>21586.2</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="4" t="s">
         <v>7</v>
@@ -6147,7 +6155,7 @@
         <v>4121.05</v>
       </c>
       <c r="L61" s="5">
-        <v>5286.0</v>
+        <v>5286</v>
       </c>
       <c r="M61" s="5">
         <v>6299.51</v>
@@ -6159,7 +6167,7 @@
         <v>8482.44</v>
       </c>
       <c r="P61" s="5">
-        <v>10212.38</v>
+        <v>10212.379999999999</v>
       </c>
       <c r="Q61" s="5">
         <v>11708.11</v>
@@ -6177,7 +6185,7 @@
         <v>16219.82</v>
       </c>
       <c r="V61" s="5">
-        <v>17179.56</v>
+        <v>17179.560000000001</v>
       </c>
       <c r="W61" s="5">
         <v>19187.48</v>
@@ -6210,7 +6218,7 @@
         <v>22606.59</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="4" t="s">
         <v>8</v>
@@ -6243,7 +6251,7 @@
         <v>508.33</v>
       </c>
       <c r="L62" s="5">
-        <v>557.68</v>
+        <v>557.67999999999995</v>
       </c>
       <c r="M62" s="5">
         <v>694.87</v>
@@ -6306,13 +6314,13 @@
         <v>1963.6</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C63" s="5">
-        <v>2604.57</v>
+        <v>2604.5700000000002</v>
       </c>
       <c r="D63" s="5">
         <v>3046.5</v>
@@ -6351,7 +6359,7 @@
         <v>8017.62</v>
       </c>
       <c r="P63" s="5">
-        <v>8813.71</v>
+        <v>8813.7099999999991</v>
       </c>
       <c r="Q63" s="5">
         <v>9715.94</v>
@@ -6363,7 +6371,7 @@
         <v>8015.72</v>
       </c>
       <c r="T63" s="5">
-        <v>10108.97</v>
+        <v>10108.969999999999</v>
       </c>
       <c r="U63" s="5">
         <v>12011.85</v>
@@ -6396,13 +6404,13 @@
         <v>7494.47</v>
       </c>
       <c r="AE63" s="5">
-        <v>9469.12</v>
+        <v>9469.1200000000008</v>
       </c>
       <c r="AF63" s="5">
         <v>10281.99</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="4" t="s">
         <v>10</v>
@@ -6414,7 +6422,7 @@
         <v>13455.41</v>
       </c>
       <c r="E64" s="5">
-        <v>17484.65</v>
+        <v>17484.650000000001</v>
       </c>
       <c r="F64" s="5">
         <v>18535.88</v>
@@ -6429,7 +6437,7 @@
         <v>23654.46</v>
       </c>
       <c r="J64" s="5">
-        <v>24677.92</v>
+        <v>24677.919999999998</v>
       </c>
       <c r="K64" s="5">
         <v>24945.07</v>
@@ -6438,7 +6446,7 @@
         <v>27891.38</v>
       </c>
       <c r="M64" s="5">
-        <v>36665.36</v>
+        <v>36665.360000000001</v>
       </c>
       <c r="N64" s="5">
         <v>45081.68</v>
@@ -6468,7 +6476,7 @@
         <v>39962.26</v>
       </c>
       <c r="W64" s="5">
-        <v>41637.45</v>
+        <v>41637.449999999997</v>
       </c>
       <c r="X64" s="5">
         <v>46236.91</v>
@@ -6483,7 +6491,7 @@
         <v>48585.66</v>
       </c>
       <c r="AB64" s="5">
-        <v>52216.8</v>
+        <v>52216.800000000003</v>
       </c>
       <c r="AC64" s="5">
         <v>49475.06</v>
@@ -6498,7 +6506,7 @@
         <v>51362.62</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="4" t="s">
         <v>11</v>
@@ -6507,7 +6515,7 @@
         <v>28199.21</v>
       </c>
       <c r="D65" s="5">
-        <v>33454.95</v>
+        <v>33454.949999999997</v>
       </c>
       <c r="E65" s="5">
         <v>40650.35</v>
@@ -6522,7 +6530,7 @@
         <v>46544.41</v>
       </c>
       <c r="I65" s="5">
-        <v>45362.56</v>
+        <v>45362.559999999998</v>
       </c>
       <c r="J65" s="5">
         <v>45529.62</v>
@@ -6552,10 +6560,10 @@
         <v>94652.28</v>
       </c>
       <c r="S65" s="5">
-        <v>74159.01</v>
+        <v>74159.009999999995</v>
       </c>
       <c r="T65" s="5">
-        <v>77800.96</v>
+        <v>77800.960000000006</v>
       </c>
       <c r="U65" s="5">
         <v>91249.84</v>
@@ -6585,16 +6593,16 @@
         <v>88627.83</v>
       </c>
       <c r="AD65" s="5">
-        <v>76776.65</v>
+        <v>76776.649999999994</v>
       </c>
       <c r="AE65" s="5">
-        <v>78514.08</v>
+        <v>78514.080000000002</v>
       </c>
       <c r="AF65" s="5">
         <v>77230.63</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="4" t="s">
         <v>12</v>
@@ -6606,7 +6614,7 @@
         <v>33516.14</v>
       </c>
       <c r="E66" s="5">
-        <v>38175.6</v>
+        <v>38175.599999999999</v>
       </c>
       <c r="F66" s="5">
         <v>39926.78</v>
@@ -6630,10 +6638,10 @@
         <v>64533.91</v>
       </c>
       <c r="M66" s="5">
-        <v>69657.15</v>
+        <v>69657.149999999994</v>
       </c>
       <c r="N66" s="5">
-        <v>80623.43</v>
+        <v>80623.429999999993</v>
       </c>
       <c r="O66" s="5">
         <v>85408.29</v>
@@ -6678,7 +6686,7 @@
         <v>135287.24</v>
       </c>
       <c r="AC66" s="5">
-        <v>133667.05</v>
+        <v>133667.04999999999</v>
       </c>
       <c r="AD66" s="5">
         <v>118687.58</v>
@@ -6690,7 +6698,7 @@
         <v>163558.59</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>5</v>
       </c>
@@ -6728,7 +6736,7 @@
         <v>2121.48</v>
       </c>
       <c r="M67" s="5">
-        <v>2605.28</v>
+        <v>2605.2800000000002</v>
       </c>
       <c r="N67" s="5">
         <v>3159.6</v>
@@ -6743,7 +6751,7 @@
         <v>3810.33</v>
       </c>
       <c r="R67" s="5">
-        <v>4234.77</v>
+        <v>4234.7700000000004</v>
       </c>
       <c r="S67" s="5">
         <v>3329.9</v>
@@ -6755,7 +6763,7 @@
         <v>4195.76</v>
       </c>
       <c r="V67" s="5">
-        <v>4767.23</v>
+        <v>4767.2299999999996</v>
       </c>
       <c r="W67" s="5">
         <v>4990.2</v>
@@ -6788,7 +6796,7 @@
         <v>5502.93</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="4" t="s">
         <v>1</v>
@@ -6839,7 +6847,7 @@
         <v>3526.33</v>
       </c>
       <c r="R68" s="5">
-        <v>4916.35</v>
+        <v>4916.3500000000004</v>
       </c>
       <c r="S68" s="5">
         <v>3775.69</v>
@@ -6884,7 +6892,7 @@
         <v>5347.88</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="4" t="s">
         <v>2</v>
@@ -6962,10 +6970,10 @@
         <v>4090.11</v>
       </c>
       <c r="AA69" s="5">
-        <v>4445.15</v>
+        <v>4445.1499999999996</v>
       </c>
       <c r="AB69" s="5">
-        <v>4847.94</v>
+        <v>4847.9399999999996</v>
       </c>
       <c r="AC69" s="5">
         <v>5029.92</v>
@@ -6980,7 +6988,7 @@
         <v>6665.98</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="4" t="s">
         <v>3</v>
@@ -7076,13 +7084,13 @@
         <v>65951.39</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C71" s="5">
-        <v>32773.12</v>
+        <v>32773.120000000003</v>
       </c>
       <c r="D71" s="5">
         <v>36082.47</v>
@@ -7100,16 +7108,16 @@
         <v>40067.22</v>
       </c>
       <c r="I71" s="5">
-        <v>39367.41</v>
+        <v>39367.410000000003</v>
       </c>
       <c r="J71" s="5">
-        <v>36497.59</v>
+        <v>36497.589999999997</v>
       </c>
       <c r="K71" s="5">
         <v>35897.14</v>
       </c>
       <c r="L71" s="5">
-        <v>35172.27</v>
+        <v>35172.269999999997</v>
       </c>
       <c r="M71" s="5">
         <v>42178.18</v>
@@ -7127,7 +7135,7 @@
         <v>64730.86</v>
       </c>
       <c r="R71" s="5">
-        <v>69597.12</v>
+        <v>69597.119999999995</v>
       </c>
       <c r="S71" s="5">
         <v>51432.63</v>
@@ -7145,7 +7153,7 @@
         <v>64341.61</v>
       </c>
       <c r="X71" s="5">
-        <v>66720.54</v>
+        <v>66720.539999999994</v>
       </c>
       <c r="Y71" s="5">
         <v>56301.95</v>
@@ -7169,106 +7177,106 @@
         <v>79784.94</v>
       </c>
       <c r="AF71" s="5">
-        <v>81677.01</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>81677.009999999995</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF72" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="4" t="s">
         <v>6</v>
@@ -7286,7 +7294,7 @@
         <v>5585.75</v>
       </c>
       <c r="G73" s="5">
-        <v>4739.35</v>
+        <v>4739.3500000000004</v>
       </c>
       <c r="H73" s="5">
         <v>4036.53</v>
@@ -7322,7 +7330,7 @@
         <v>6239.82</v>
       </c>
       <c r="S73" s="5">
-        <v>5173.9</v>
+        <v>5173.8999999999996</v>
       </c>
       <c r="T73" s="5">
         <v>5314.36</v>
@@ -7343,7 +7351,7 @@
         <v>6106.89</v>
       </c>
       <c r="Z73" s="5">
-        <v>6662.0</v>
+        <v>6662</v>
       </c>
       <c r="AA73" s="5">
         <v>7410.06</v>
@@ -7358,13 +7366,13 @@
         <v>8136.03</v>
       </c>
       <c r="AE73" s="5">
-        <v>8930.2</v>
+        <v>8930.2000000000007</v>
       </c>
       <c r="AF73" s="5">
-        <v>8502.05</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>8502.0499999999993</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="4" t="s">
         <v>7</v>
@@ -7376,7 +7384,7 @@
         <v>1778.71</v>
       </c>
       <c r="E74" s="5">
-        <v>2300.68</v>
+        <v>2300.6799999999998</v>
       </c>
       <c r="F74" s="5">
         <v>2832.48</v>
@@ -7427,7 +7435,7 @@
         <v>4062.45</v>
       </c>
       <c r="V74" s="5">
-        <v>4445.14</v>
+        <v>4445.1400000000003</v>
       </c>
       <c r="W74" s="5">
         <v>5025.5</v>
@@ -7436,13 +7444,13 @@
         <v>5525.37</v>
       </c>
       <c r="Y74" s="5">
-        <v>4985.35</v>
+        <v>4985.3500000000004</v>
       </c>
       <c r="Z74" s="5">
-        <v>4408.77</v>
+        <v>4408.7700000000004</v>
       </c>
       <c r="AA74" s="5">
-        <v>4870.27</v>
+        <v>4870.2700000000004</v>
       </c>
       <c r="AB74" s="5">
         <v>5383.13</v>
@@ -7460,7 +7468,7 @@
         <v>7403.48</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="4" t="s">
         <v>8</v>
@@ -7475,7 +7483,7 @@
         <v>258.88</v>
       </c>
       <c r="F75" s="5">
-        <v>297.85</v>
+        <v>297.85000000000002</v>
       </c>
       <c r="G75" s="5">
         <v>242.02</v>
@@ -7493,7 +7501,7 @@
         <v>243.54</v>
       </c>
       <c r="L75" s="5">
-        <v>302.85</v>
+        <v>302.85000000000002</v>
       </c>
       <c r="M75" s="5">
         <v>358.23</v>
@@ -7514,13 +7522,13 @@
         <v>552.54</v>
       </c>
       <c r="S75" s="5">
-        <v>319.29</v>
+        <v>319.29000000000002</v>
       </c>
       <c r="T75" s="5">
         <v>373.13</v>
       </c>
       <c r="U75" s="5">
-        <v>522.67</v>
+        <v>522.66999999999996</v>
       </c>
       <c r="V75" s="5">
         <v>480.23</v>
@@ -7556,7 +7564,7 @@
         <v>745.36</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="4" t="s">
         <v>9</v>
@@ -7571,10 +7579,10 @@
         <v>1134.45</v>
       </c>
       <c r="F76" s="5">
-        <v>1199.86</v>
+        <v>1199.8599999999999</v>
       </c>
       <c r="G76" s="5">
-        <v>1143.65</v>
+        <v>1143.6500000000001</v>
       </c>
       <c r="H76" s="5">
         <v>1036.57</v>
@@ -7607,7 +7615,7 @@
         <v>2116.98</v>
       </c>
       <c r="R76" s="5">
-        <v>2116.07</v>
+        <v>2116.0700000000002</v>
       </c>
       <c r="S76" s="5">
         <v>1497.66</v>
@@ -7625,7 +7633,7 @@
         <v>2522.86</v>
       </c>
       <c r="X76" s="5">
-        <v>2488.8</v>
+        <v>2488.8000000000002</v>
       </c>
       <c r="Y76" s="5">
         <v>2108.58</v>
@@ -7640,7 +7648,7 @@
         <v>2369.84</v>
       </c>
       <c r="AC76" s="5">
-        <v>2083.51</v>
+        <v>2083.5100000000002</v>
       </c>
       <c r="AD76" s="5">
         <v>1730.04</v>
@@ -7649,10 +7657,10 @@
         <v>2657.19</v>
       </c>
       <c r="AF76" s="5">
-        <v>2510.03</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>2510.0300000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="4" t="s">
         <v>10</v>
@@ -7661,7 +7669,7 @@
         <v>7369.4</v>
       </c>
       <c r="D77" s="5">
-        <v>8913.97</v>
+        <v>8913.9699999999993</v>
       </c>
       <c r="E77" s="5">
         <v>11567.47</v>
@@ -7685,7 +7693,7 @@
         <v>15265.2</v>
       </c>
       <c r="L77" s="5">
-        <v>16432.81</v>
+        <v>16432.810000000001</v>
       </c>
       <c r="M77" s="5">
         <v>21479.81</v>
@@ -7745,10 +7753,10 @@
         <v>31009.99</v>
       </c>
       <c r="AF77" s="5">
-        <v>33818.08</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>33818.080000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="4" t="s">
         <v>11</v>
@@ -7766,7 +7774,7 @@
         <v>16202.32</v>
       </c>
       <c r="G78" s="5">
-        <v>16930.58</v>
+        <v>16930.580000000002</v>
       </c>
       <c r="H78" s="5">
         <v>17476.38</v>
@@ -7799,13 +7807,13 @@
         <v>29121.13</v>
       </c>
       <c r="R78" s="5">
-        <v>28556.24</v>
+        <v>28556.240000000002</v>
       </c>
       <c r="S78" s="5">
-        <v>20865.19</v>
+        <v>20865.189999999999</v>
       </c>
       <c r="T78" s="5">
-        <v>23292.96</v>
+        <v>23292.959999999999</v>
       </c>
       <c r="U78" s="5">
         <v>24413.93</v>
@@ -7817,7 +7825,7 @@
         <v>26021.13</v>
       </c>
       <c r="X78" s="5">
-        <v>27782.8</v>
+        <v>27782.799999999999</v>
       </c>
       <c r="Y78" s="5">
         <v>24783.38</v>
@@ -7841,10 +7849,10 @@
         <v>27688.32</v>
       </c>
       <c r="AF78" s="5">
-        <v>28601.28</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>28601.279999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="4" t="s">
         <v>12</v>
@@ -7862,7 +7870,7 @@
         <v>18482.3</v>
       </c>
       <c r="G79" s="5">
-        <v>18893.69</v>
+        <v>18893.689999999999</v>
       </c>
       <c r="H79" s="5">
         <v>20801.12</v>
@@ -7874,7 +7882,7 @@
         <v>24543.86</v>
       </c>
       <c r="K79" s="5">
-        <v>23495.44</v>
+        <v>23495.439999999999</v>
       </c>
       <c r="L79" s="5">
         <v>24448.83</v>
@@ -7895,13 +7903,13 @@
         <v>33272.81</v>
       </c>
       <c r="R79" s="5">
-        <v>33886.41</v>
+        <v>33886.410000000003</v>
       </c>
       <c r="S79" s="5">
         <v>23848.54</v>
       </c>
       <c r="T79" s="5">
-        <v>26834.72</v>
+        <v>26834.720000000001</v>
       </c>
       <c r="U79" s="5">
         <v>31793.42</v>
@@ -7919,7 +7927,7 @@
         <v>39875.32</v>
       </c>
       <c r="Z79" s="5">
-        <v>40819.55</v>
+        <v>40819.550000000003</v>
       </c>
       <c r="AA79" s="5">
         <v>45702.19</v>
@@ -7934,13 +7942,13 @@
         <v>48540.45</v>
       </c>
       <c r="AE79" s="5">
-        <v>58290.24</v>
+        <v>58290.239999999998</v>
       </c>
       <c r="AF79" s="5">
-        <v>68010.6</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>68010.600000000006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>6</v>
       </c>
@@ -7975,7 +7983,7 @@
         <v>7692.52</v>
       </c>
       <c r="L80" s="5">
-        <v>8318.12</v>
+        <v>8318.1200000000008</v>
       </c>
       <c r="M80" s="5">
         <v>9966.42</v>
@@ -8005,7 +8013,7 @@
         <v>17879.79</v>
       </c>
       <c r="V80" s="5">
-        <v>18418.58</v>
+        <v>18418.580000000002</v>
       </c>
       <c r="W80" s="5">
         <v>16953.34</v>
@@ -8035,10 +8043,10 @@
         <v>15240.94</v>
       </c>
       <c r="AF80" s="5">
-        <v>16519.19</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>16519.189999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="4" t="s">
         <v>1</v>
@@ -8050,7 +8058,7 @@
         <v>1880.99</v>
       </c>
       <c r="E81" s="5">
-        <v>2598.76</v>
+        <v>2598.7600000000002</v>
       </c>
       <c r="F81" s="5">
         <v>2211.31</v>
@@ -8062,19 +8070,19 @@
         <v>2610.4</v>
       </c>
       <c r="I81" s="5">
-        <v>2061.47</v>
+        <v>2061.4699999999998</v>
       </c>
       <c r="J81" s="5">
         <v>2519.14</v>
       </c>
       <c r="K81" s="5">
-        <v>2476.26</v>
+        <v>2476.2600000000002</v>
       </c>
       <c r="L81" s="5">
         <v>1815.1</v>
       </c>
       <c r="M81" s="5">
-        <v>1874.0</v>
+        <v>1874</v>
       </c>
       <c r="N81" s="5">
         <v>2346.79</v>
@@ -8128,13 +8136,13 @@
         <v>2942.87</v>
       </c>
       <c r="AE81" s="5">
-        <v>4184.81</v>
+        <v>4184.8100000000004</v>
       </c>
       <c r="AF81" s="5">
         <v>4332.3</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="4" t="s">
         <v>2</v>
@@ -8149,7 +8157,7 @@
         <v>5828.14</v>
       </c>
       <c r="F82" s="5">
-        <v>5123.89</v>
+        <v>5123.8900000000003</v>
       </c>
       <c r="G82" s="5">
         <v>6106.37</v>
@@ -8194,10 +8202,10 @@
         <v>9314.19</v>
       </c>
       <c r="U82" s="5">
-        <v>8917.45</v>
+        <v>8917.4500000000007</v>
       </c>
       <c r="V82" s="5">
-        <v>10264.97</v>
+        <v>10264.969999999999</v>
       </c>
       <c r="W82" s="5">
         <v>8697.77</v>
@@ -8212,7 +8220,7 @@
         <v>8178.64</v>
       </c>
       <c r="AA82" s="5">
-        <v>9597.0</v>
+        <v>9597</v>
       </c>
       <c r="AB82" s="5">
         <v>9352.15</v>
@@ -8224,13 +8232,13 @@
         <v>7224.28</v>
       </c>
       <c r="AE82" s="5">
-        <v>8373.72</v>
+        <v>8373.7199999999993</v>
       </c>
       <c r="AF82" s="5">
         <v>8631.11</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="4" t="s">
         <v>3</v>
@@ -8326,13 +8334,13 @@
         <v>6447.5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5">
-        <v>18107.6</v>
+        <v>18107.599999999999</v>
       </c>
       <c r="D84" s="5">
         <v>17784.41</v>
@@ -8341,16 +8349,16 @@
         <v>20328.27</v>
       </c>
       <c r="F84" s="5">
-        <v>18230.35</v>
+        <v>18230.349999999999</v>
       </c>
       <c r="G84" s="5">
         <v>17988.34</v>
       </c>
       <c r="H84" s="5">
-        <v>19090.49</v>
+        <v>19090.490000000002</v>
       </c>
       <c r="I84" s="5">
-        <v>18698.08</v>
+        <v>18698.080000000002</v>
       </c>
       <c r="J84" s="5">
         <v>19998.22</v>
@@ -8374,7 +8382,7 @@
         <v>20415.03</v>
       </c>
       <c r="Q84" s="5">
-        <v>22629.04</v>
+        <v>22629.040000000001</v>
       </c>
       <c r="R84" s="5">
         <v>23986.84</v>
@@ -8407,13 +8415,13 @@
         <v>18946.34</v>
       </c>
       <c r="AB84" s="5">
-        <v>20893.26</v>
+        <v>20893.259999999998</v>
       </c>
       <c r="AC84" s="5">
-        <v>20229.51</v>
+        <v>20229.509999999998</v>
       </c>
       <c r="AD84" s="5">
-        <v>17402.4</v>
+        <v>17402.400000000001</v>
       </c>
       <c r="AE84" s="5">
         <v>20749.66</v>
@@ -8422,7 +8430,7 @@
         <v>19556.43</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="4" t="s">
         <v>5</v>
@@ -8443,7 +8451,7 @@
         <v>3786.13</v>
       </c>
       <c r="H85" s="5">
-        <v>4258.15</v>
+        <v>4258.1499999999996</v>
       </c>
       <c r="I85" s="5">
         <v>5093.95</v>
@@ -8452,7 +8460,7 @@
         <v>5794.52</v>
       </c>
       <c r="K85" s="5">
-        <v>4819.19</v>
+        <v>4819.1899999999996</v>
       </c>
       <c r="L85" s="5">
         <v>4476.42</v>
@@ -8497,13 +8505,13 @@
         <v>3594.28</v>
       </c>
       <c r="Z85" s="5">
-        <v>4686.31</v>
+        <v>4686.3100000000004</v>
       </c>
       <c r="AA85" s="5">
         <v>4892.71</v>
       </c>
       <c r="AB85" s="5">
-        <v>4700.44</v>
+        <v>4700.4399999999996</v>
       </c>
       <c r="AC85" s="5">
         <v>4596.87</v>
@@ -8518,109 +8526,109 @@
         <v>5312.48</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE86" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF86" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="5">
-        <v>19192.08</v>
+        <v>19192.080000000002</v>
       </c>
       <c r="D87" s="5">
         <v>24360.94</v>
@@ -8629,10 +8637,10 @@
         <v>31291.87</v>
       </c>
       <c r="F87" s="5">
-        <v>29369.28</v>
+        <v>29369.279999999999</v>
       </c>
       <c r="G87" s="5">
-        <v>26096.64</v>
+        <v>26096.639999999999</v>
       </c>
       <c r="H87" s="5">
         <v>15400.25</v>
@@ -8650,7 +8658,7 @@
         <v>28611.85</v>
       </c>
       <c r="M87" s="5">
-        <v>34822.98</v>
+        <v>34822.980000000003</v>
       </c>
       <c r="N87" s="5">
         <v>44246.95</v>
@@ -8701,7 +8709,7 @@
         <v>46256.34</v>
       </c>
       <c r="AD87" s="5">
-        <v>44392.0</v>
+        <v>44392</v>
       </c>
       <c r="AE87" s="5">
         <v>52507.11</v>
@@ -8710,13 +8718,13 @@
         <v>54223.53</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C88" s="5">
-        <v>1280.86</v>
+        <v>1280.8599999999999</v>
       </c>
       <c r="D88" s="5">
         <v>1538.99</v>
@@ -8755,7 +8763,7 @@
         <v>2440.4</v>
       </c>
       <c r="P88" s="5">
-        <v>2094.07</v>
+        <v>2094.0700000000002</v>
       </c>
       <c r="Q88" s="5">
         <v>2494.58</v>
@@ -8788,13 +8796,13 @@
         <v>2193.6</v>
       </c>
       <c r="AA88" s="5">
-        <v>2463.7</v>
+        <v>2463.6999999999998</v>
       </c>
       <c r="AB88" s="5">
         <v>2614.84</v>
       </c>
       <c r="AC88" s="5">
-        <v>2331.22</v>
+        <v>2331.2199999999998</v>
       </c>
       <c r="AD88" s="5">
         <v>1843.91</v>
@@ -8806,7 +8814,7 @@
         <v>3002.47</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="4" t="s">
         <v>9</v>
@@ -8857,7 +8865,7 @@
         <v>4618.32</v>
       </c>
       <c r="R89" s="5">
-        <v>4629.85</v>
+        <v>4629.8500000000004</v>
       </c>
       <c r="S89" s="5">
         <v>2612.38</v>
@@ -8881,10 +8889,10 @@
         <v>2690.8</v>
       </c>
       <c r="Z89" s="5">
-        <v>2232.68</v>
+        <v>2232.6799999999998</v>
       </c>
       <c r="AA89" s="5">
-        <v>2516.32</v>
+        <v>2516.3200000000002</v>
       </c>
       <c r="AB89" s="5">
         <v>2519.35</v>
@@ -8896,13 +8904,13 @@
         <v>1664.77</v>
       </c>
       <c r="AE89" s="5">
-        <v>2354.97</v>
+        <v>2354.9699999999998</v>
       </c>
       <c r="AF89" s="5">
         <v>2359.09</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="4" t="s">
         <v>10</v>
@@ -8911,16 +8919,16 @@
         <v>2204.52</v>
       </c>
       <c r="D90" s="5">
-        <v>2103.45</v>
+        <v>2103.4499999999998</v>
       </c>
       <c r="E90" s="5">
         <v>2395.58</v>
       </c>
       <c r="F90" s="5">
-        <v>2185.95</v>
+        <v>2185.9499999999998</v>
       </c>
       <c r="G90" s="5">
-        <v>2224.57</v>
+        <v>2224.5700000000002</v>
       </c>
       <c r="H90" s="5">
         <v>2816.26</v>
@@ -8941,10 +8949,10 @@
         <v>3674.92</v>
       </c>
       <c r="N90" s="5">
-        <v>4969.65</v>
+        <v>4969.6499999999996</v>
       </c>
       <c r="O90" s="5">
-        <v>5184.73</v>
+        <v>5184.7299999999996</v>
       </c>
       <c r="P90" s="5">
         <v>5738.69</v>
@@ -8956,7 +8964,7 @@
         <v>4455.12</v>
       </c>
       <c r="S90" s="5">
-        <v>2594.78</v>
+        <v>2594.7800000000002</v>
       </c>
       <c r="T90" s="5">
         <v>3225.12</v>
@@ -8968,7 +8976,7 @@
         <v>2446.15</v>
       </c>
       <c r="W90" s="5">
-        <v>2090.05</v>
+        <v>2090.0500000000002</v>
       </c>
       <c r="X90" s="5">
         <v>2301.35</v>
@@ -8998,7 +9006,7 @@
         <v>2686.44</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="4" t="s">
         <v>11</v>
@@ -9094,7 +9102,7 @@
         <v>11037.96</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="4" t="s">
         <v>12</v>
@@ -9133,10 +9141,10 @@
         <v>117384.24</v>
       </c>
       <c r="N92" s="5">
-        <v>128606.0</v>
+        <v>128606</v>
       </c>
       <c r="O92" s="5">
-        <v>136001.61</v>
+        <v>136001.60999999999</v>
       </c>
       <c r="P92" s="5">
         <v>147230.37</v>
@@ -9160,7 +9168,7 @@
         <v>142053.28</v>
       </c>
       <c r="W92" s="5">
-        <v>134398.14</v>
+        <v>134398.14000000001</v>
       </c>
       <c r="X92" s="5">
         <v>130571.1</v>
@@ -9178,7 +9186,7 @@
         <v>140616.9</v>
       </c>
       <c r="AC92" s="5">
-        <v>140393.7</v>
+        <v>140393.70000000001</v>
       </c>
       <c r="AD92" s="5">
         <v>118292.53</v>
@@ -9190,7 +9198,7 @@
         <v>139432.97</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>7</v>
       </c>
@@ -9198,10 +9206,10 @@
         <v>0</v>
       </c>
       <c r="C93" s="5">
-        <v>1184.4</v>
+        <v>1184.4000000000001</v>
       </c>
       <c r="D93" s="5">
-        <v>1232.4</v>
+        <v>1232.4000000000001</v>
       </c>
       <c r="E93" s="5">
         <v>1569.6</v>
@@ -9222,7 +9230,7 @@
         <v>2606.38</v>
       </c>
       <c r="K93" s="4">
-        <v>2173.2</v>
+        <v>2173.1999999999998</v>
       </c>
       <c r="L93" s="5">
         <v>2339.59</v>
@@ -9240,7 +9248,7 @@
         <v>4692.09</v>
       </c>
       <c r="Q93" s="5">
-        <v>4691.19</v>
+        <v>4691.1899999999996</v>
       </c>
       <c r="R93" s="5">
         <v>5171.34</v>
@@ -9261,7 +9269,7 @@
         <v>9563.09</v>
       </c>
       <c r="X93" s="5">
-        <v>10282.53</v>
+        <v>10282.530000000001</v>
       </c>
       <c r="Y93" s="5">
         <v>10830.63</v>
@@ -9273,7 +9281,7 @@
         <v>16400.09</v>
       </c>
       <c r="AB93" s="5">
-        <v>9623.13</v>
+        <v>9623.1299999999992</v>
       </c>
       <c r="AC93" s="5">
         <v>7891.09</v>
@@ -9288,7 +9296,7 @@
         <v>18753.03</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="4" t="s">
         <v>1</v>
@@ -9312,7 +9320,7 @@
         <v>1795.2</v>
       </c>
       <c r="I94" s="5">
-        <v>1209.6</v>
+        <v>1209.5999999999999</v>
       </c>
       <c r="J94" s="5">
         <v>1724.13</v>
@@ -9372,25 +9380,25 @@
         <v>4894.58</v>
       </c>
       <c r="AC94" s="5">
-        <v>4809.85</v>
+        <v>4809.8500000000004</v>
       </c>
       <c r="AD94" s="5">
         <v>3943.86</v>
       </c>
       <c r="AE94" s="5">
-        <v>4666.44</v>
+        <v>4666.4399999999996</v>
       </c>
       <c r="AF94" s="5">
-        <v>4975.56</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>4975.5600000000004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C95" s="5">
-        <v>1374.0</v>
+        <v>1374</v>
       </c>
       <c r="D95" s="5">
         <v>1389.6</v>
@@ -9399,7 +9407,7 @@
         <v>1790.4</v>
       </c>
       <c r="F95" s="5">
-        <v>1203.6</v>
+        <v>1203.5999999999999</v>
       </c>
       <c r="G95" s="5">
         <v>1514.4</v>
@@ -9408,7 +9416,7 @@
         <v>1555.2</v>
       </c>
       <c r="I95" s="5">
-        <v>1638.0</v>
+        <v>1638</v>
       </c>
       <c r="J95" s="5">
         <v>2426.73</v>
@@ -9441,7 +9449,7 @@
         <v>3439.57</v>
       </c>
       <c r="T95" s="5">
-        <v>4101.86</v>
+        <v>4101.8599999999997</v>
       </c>
       <c r="U95" s="5">
         <v>4930.03</v>
@@ -9450,7 +9458,7 @@
         <v>4828.12</v>
       </c>
       <c r="W95" s="5">
-        <v>5202.86</v>
+        <v>5202.8599999999997</v>
       </c>
       <c r="X95" s="5">
         <v>4916.63</v>
@@ -9480,7 +9488,7 @@
         <v>7839.26</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="4" t="s">
         <v>3</v>
@@ -9489,13 +9497,13 @@
         <v>919.2</v>
       </c>
       <c r="D96" s="5">
-        <v>1032.0</v>
+        <v>1032</v>
       </c>
       <c r="E96" s="5">
         <v>1510.8</v>
       </c>
       <c r="F96" s="5">
-        <v>1250.4</v>
+        <v>1250.4000000000001</v>
       </c>
       <c r="G96" s="5">
         <v>1396.8</v>
@@ -9576,7 +9584,7 @@
         <v>5346.76</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="4" t="s">
         <v>4</v>
@@ -9585,7 +9593,7 @@
         <v>3592.8</v>
       </c>
       <c r="D97" s="5">
-        <v>4314.0</v>
+        <v>4314</v>
       </c>
       <c r="E97" s="5">
         <v>5965.2</v>
@@ -9600,13 +9608,13 @@
         <v>4041.6</v>
       </c>
       <c r="I97" s="5">
-        <v>4184.4</v>
+        <v>4184.3999999999996</v>
       </c>
       <c r="J97" s="5">
         <v>5153.83</v>
       </c>
       <c r="K97" s="5">
-        <v>4321.77</v>
+        <v>4321.7700000000004</v>
       </c>
       <c r="L97" s="5">
         <v>4287.21</v>
@@ -9618,10 +9626,10 @@
         <v>8334.23</v>
       </c>
       <c r="O97" s="5">
-        <v>10303.96</v>
+        <v>10303.959999999999</v>
       </c>
       <c r="P97" s="5">
-        <v>10056.21</v>
+        <v>10056.209999999999</v>
       </c>
       <c r="Q97" s="5">
         <v>11542.53</v>
@@ -9660,10 +9668,10 @@
         <v>9433.31</v>
       </c>
       <c r="AC97" s="5">
-        <v>8706.95</v>
+        <v>8706.9500000000007</v>
       </c>
       <c r="AD97" s="5">
-        <v>9577.12</v>
+        <v>9577.1200000000008</v>
       </c>
       <c r="AE97" s="5">
         <v>11109.89</v>
@@ -9672,16 +9680,16 @@
         <v>10067.73</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C98" s="5">
-        <v>606.0</v>
+        <v>606</v>
       </c>
       <c r="D98" s="5">
-        <v>756.0</v>
+        <v>756</v>
       </c>
       <c r="E98" s="5">
         <v>1030.8</v>
@@ -9714,10 +9722,10 @@
         <v>3407.74</v>
       </c>
       <c r="O98" s="5">
-        <v>4297.1</v>
+        <v>4297.1000000000004</v>
       </c>
       <c r="P98" s="5">
-        <v>4286.35</v>
+        <v>4286.3500000000004</v>
       </c>
       <c r="Q98" s="5">
         <v>4151.75</v>
@@ -9729,10 +9737,10 @@
         <v>2797.58</v>
       </c>
       <c r="T98" s="5">
-        <v>3570.0</v>
+        <v>3570</v>
       </c>
       <c r="U98" s="5">
-        <v>4109.06</v>
+        <v>4109.0600000000004</v>
       </c>
       <c r="V98" s="5">
         <v>3262.95</v>
@@ -9765,10 +9773,10 @@
         <v>4597.18</v>
       </c>
       <c r="AF98" s="5">
-        <v>5134.15</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>5134.1499999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="4" t="s">
         <v>6</v>
@@ -9780,7 +9788,7 @@
         <v>13522.8</v>
       </c>
       <c r="E99" s="5">
-        <v>17048.4</v>
+        <v>17048.400000000001</v>
       </c>
       <c r="F99" s="5">
         <v>15766.8</v>
@@ -9810,7 +9818,7 @@
         <v>21701.34</v>
       </c>
       <c r="O99" s="5">
-        <v>24027.44</v>
+        <v>24027.439999999999</v>
       </c>
       <c r="P99" s="5">
         <v>26534.02</v>
@@ -9828,7 +9836,7 @@
         <v>28176.28</v>
       </c>
       <c r="U99" s="5">
-        <v>39712.55</v>
+        <v>39712.550000000003</v>
       </c>
       <c r="V99" s="5">
         <v>38796.06</v>
@@ -9846,7 +9854,7 @@
         <v>24362.6</v>
       </c>
       <c r="AA99" s="5">
-        <v>26520.08</v>
+        <v>26520.080000000002</v>
       </c>
       <c r="AB99" s="5">
         <v>30595.49</v>
@@ -9864,103 +9872,103 @@
         <v>30606.28</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE100" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF100" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="4" t="s">
         <v>8</v>
@@ -9969,7 +9977,7 @@
         <v>124.8</v>
       </c>
       <c r="D101" s="5">
-        <v>157.2</v>
+        <v>157.19999999999999</v>
       </c>
       <c r="E101" s="5">
         <v>201.6</v>
@@ -9981,23 +9989,25 @@
         <v>241.2</v>
       </c>
       <c r="H101" s="5">
-        <v>210.0</v>
+        <v>210</v>
       </c>
       <c r="I101" s="5">
         <v>277.2</v>
       </c>
       <c r="J101" s="5">
-        <v>286.09</v>
+        <v>286.08999999999997</v>
       </c>
       <c r="K101" s="5">
-        <v>272.16</v>
-      </c>
-      <c r="L101" s="6"/>
+        <v>272.16000000000003</v>
+      </c>
+      <c r="L101" s="6">
+        <v>352.47</v>
+      </c>
       <c r="M101" s="5">
         <v>432.78</v>
       </c>
       <c r="N101" s="5">
-        <v>620.18</v>
+        <v>620.17999999999995</v>
       </c>
       <c r="O101" s="5">
         <v>670.31</v>
@@ -10018,7 +10028,7 @@
         <v>918.46</v>
       </c>
       <c r="U101" s="5">
-        <v>1103.86</v>
+        <v>1103.8599999999999</v>
       </c>
       <c r="V101" s="5">
         <v>1465.07</v>
@@ -10033,7 +10043,7 @@
         <v>1262.75</v>
       </c>
       <c r="Z101" s="5">
-        <v>1320.0</v>
+        <v>1320</v>
       </c>
       <c r="AA101" s="5">
         <v>1342.43</v>
@@ -10054,28 +10064,28 @@
         <v>3490.14</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A102" s="1"/>
       <c r="B102" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C102" s="5">
-        <v>273.6</v>
+        <v>273.60000000000002</v>
       </c>
       <c r="D102" s="5">
-        <v>318.0</v>
+        <v>318</v>
       </c>
       <c r="E102" s="5">
         <v>465.6</v>
       </c>
       <c r="F102" s="5">
-        <v>547.2</v>
+        <v>547.20000000000005</v>
       </c>
       <c r="G102" s="5">
         <v>471.6</v>
       </c>
       <c r="H102" s="5">
-        <v>598.8</v>
+        <v>598.79999999999995</v>
       </c>
       <c r="I102" s="5">
         <v>469.2</v>
@@ -10090,7 +10100,7 @@
         <v>394.49</v>
       </c>
       <c r="M102" s="5">
-        <v>530.19</v>
+        <v>530.19000000000005</v>
       </c>
       <c r="N102" s="5">
         <v>959.43</v>
@@ -10150,25 +10160,25 @@
         <v>1144.7</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A103" s="1"/>
       <c r="B103" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="5">
-        <v>526.8</v>
+        <v>526.79999999999995</v>
       </c>
       <c r="D103" s="5">
-        <v>631.2</v>
+        <v>631.20000000000005</v>
       </c>
       <c r="E103" s="5">
         <v>847.2</v>
       </c>
       <c r="F103" s="5">
-        <v>900.0</v>
+        <v>900</v>
       </c>
       <c r="G103" s="5">
-        <v>936.0</v>
+        <v>936</v>
       </c>
       <c r="H103" s="5">
         <v>1516.8</v>
@@ -10219,7 +10229,7 @@
         <v>1682.12</v>
       </c>
       <c r="X103" s="5">
-        <v>2068.47</v>
+        <v>2068.4699999999998</v>
       </c>
       <c r="Y103" s="5">
         <v>2171.04</v>
@@ -10237,7 +10247,7 @@
         <v>2769.46</v>
       </c>
       <c r="AD103" s="5">
-        <v>2301.97</v>
+        <v>2301.9699999999998</v>
       </c>
       <c r="AE103" s="5">
         <v>2846.42</v>
@@ -10246,7 +10256,7 @@
         <v>3235.88</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A104" s="1"/>
       <c r="B104" s="4" t="s">
         <v>11</v>
@@ -10255,22 +10265,22 @@
         <v>1660.8</v>
       </c>
       <c r="D104" s="5">
-        <v>1782.0</v>
+        <v>1782</v>
       </c>
       <c r="E104" s="5">
-        <v>2874.0</v>
+        <v>2874</v>
       </c>
       <c r="F104" s="5">
-        <v>3222.0</v>
+        <v>3222</v>
       </c>
       <c r="G104" s="5">
-        <v>3984.0</v>
+        <v>3984</v>
       </c>
       <c r="H104" s="5">
-        <v>4190.4</v>
+        <v>4190.3999999999996</v>
       </c>
       <c r="I104" s="5">
-        <v>4776.0</v>
+        <v>4776</v>
       </c>
       <c r="J104" s="5">
         <v>5379.83</v>
@@ -10312,10 +10322,10 @@
         <v>4926.03</v>
       </c>
       <c r="W104" s="5">
-        <v>4814.44</v>
+        <v>4814.4399999999996</v>
       </c>
       <c r="X104" s="5">
-        <v>6060.0</v>
+        <v>6060</v>
       </c>
       <c r="Y104" s="5">
         <v>7855.98</v>
@@ -10342,34 +10352,34 @@
         <v>6364.52</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A105" s="1"/>
       <c r="B105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C105" s="5">
-        <v>18219.6</v>
+        <v>18219.599999999999</v>
       </c>
       <c r="D105" s="5">
-        <v>20703.6</v>
+        <v>20703.599999999999</v>
       </c>
       <c r="E105" s="5">
-        <v>24344.4</v>
+        <v>24344.400000000001</v>
       </c>
       <c r="F105" s="5">
-        <v>21925.2</v>
+        <v>21925.200000000001</v>
       </c>
       <c r="G105" s="5">
-        <v>21849.6</v>
+        <v>21849.599999999999</v>
       </c>
       <c r="H105" s="5">
-        <v>23076.0</v>
+        <v>23076</v>
       </c>
       <c r="I105" s="5">
-        <v>29600.4</v>
+        <v>29600.400000000001</v>
       </c>
       <c r="J105" s="5">
-        <v>37806.08</v>
+        <v>37806.080000000002</v>
       </c>
       <c r="K105" s="5">
         <v>31357.7</v>
@@ -10384,7 +10394,7 @@
         <v>43026.6</v>
       </c>
       <c r="O105" s="5">
-        <v>41499.55</v>
+        <v>41499.550000000003</v>
       </c>
       <c r="P105" s="5">
         <v>43320.56</v>
@@ -10420,10 +10430,10 @@
         <v>66753.91</v>
       </c>
       <c r="AA105" s="5">
-        <v>68734.49</v>
+        <v>68734.490000000005</v>
       </c>
       <c r="AB105" s="5">
-        <v>73313.79</v>
+        <v>73313.789999999994</v>
       </c>
       <c r="AC105" s="5">
         <v>73891.81</v>
@@ -10438,7 +10448,7 @@
         <v>110177.65</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>8</v>
       </c>
@@ -10467,10 +10477,10 @@
         <v>2665.37</v>
       </c>
       <c r="J106" s="5">
-        <v>2565.8</v>
+        <v>2565.8000000000002</v>
       </c>
       <c r="K106" s="5">
-        <v>2534.03</v>
+        <v>2534.0300000000002</v>
       </c>
       <c r="L106" s="5">
         <v>2874.92</v>
@@ -10485,7 +10495,7 @@
         <v>4656.74</v>
       </c>
       <c r="P106" s="5">
-        <v>4597.98</v>
+        <v>4597.9799999999996</v>
       </c>
       <c r="Q106" s="5">
         <v>5928.01</v>
@@ -10500,7 +10510,7 @@
         <v>7240.77</v>
       </c>
       <c r="U106" s="5">
-        <v>8308.21</v>
+        <v>8308.2099999999991</v>
       </c>
       <c r="V106" s="5">
         <v>7856.6</v>
@@ -10536,7 +10546,7 @@
         <v>5585.71</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
       <c r="B107" s="4" t="s">
         <v>1</v>
@@ -10560,10 +10570,10 @@
         <v>70.69</v>
       </c>
       <c r="I107" s="5">
-        <v>33.87</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="J107" s="5">
-        <v>32.98</v>
+        <v>32.979999999999997</v>
       </c>
       <c r="K107" s="5">
         <v>31.02</v>
@@ -10593,13 +10603,13 @@
         <v>41.3</v>
       </c>
       <c r="T107" s="5">
-        <v>38.87</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="U107" s="5">
         <v>45.97</v>
       </c>
       <c r="V107" s="5">
-        <v>66.46</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="W107" s="5">
         <v>164.25</v>
@@ -10632,7 +10642,7 @@
         <v>76.64</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A108" s="1"/>
       <c r="B108" s="4" t="s">
         <v>2</v>
@@ -10644,7 +10654,7 @@
         <v>205.92</v>
       </c>
       <c r="E108" s="5">
-        <v>224.0</v>
+        <v>224</v>
       </c>
       <c r="F108" s="5">
         <v>212.52</v>
@@ -10665,7 +10675,7 @@
         <v>263.88</v>
       </c>
       <c r="L108" s="5">
-        <v>296.65</v>
+        <v>296.64999999999998</v>
       </c>
       <c r="M108" s="5">
         <v>314.69</v>
@@ -10719,16 +10729,16 @@
         <v>490.94</v>
       </c>
       <c r="AD108" s="5">
-        <v>515.3</v>
+        <v>515.29999999999995</v>
       </c>
       <c r="AE108" s="5">
         <v>451.86</v>
       </c>
       <c r="AF108" s="5">
-        <v>567.83</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>567.83000000000004</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A109" s="1"/>
       <c r="B109" s="4" t="s">
         <v>3</v>
@@ -10743,7 +10753,7 @@
         <v>145.49</v>
       </c>
       <c r="F109" s="5">
-        <v>137.98</v>
+        <v>137.97999999999999</v>
       </c>
       <c r="G109" s="5">
         <v>138.06</v>
@@ -10752,7 +10762,7 @@
         <v>118.59</v>
       </c>
       <c r="I109" s="5">
-        <v>159.02</v>
+        <v>159.02000000000001</v>
       </c>
       <c r="J109" s="5">
         <v>190.81</v>
@@ -10776,13 +10786,13 @@
         <v>265.98</v>
       </c>
       <c r="Q109" s="5">
-        <v>315.34</v>
+        <v>315.33999999999997</v>
       </c>
       <c r="R109" s="5">
         <v>381.45</v>
       </c>
       <c r="S109" s="5">
-        <v>332.0</v>
+        <v>332</v>
       </c>
       <c r="T109" s="5">
         <v>348.72</v>
@@ -10803,7 +10813,7 @@
         <v>287.31</v>
       </c>
       <c r="Z109" s="5">
-        <v>258.53</v>
+        <v>258.52999999999997</v>
       </c>
       <c r="AA109" s="5">
         <v>247.93</v>
@@ -10815,16 +10825,16 @@
         <v>244.55</v>
       </c>
       <c r="AD109" s="5">
-        <v>306.34</v>
+        <v>306.33999999999997</v>
       </c>
       <c r="AE109" s="5">
         <v>271.81</v>
       </c>
       <c r="AF109" s="5">
-        <v>304.6</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>304.60000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A110" s="1"/>
       <c r="B110" s="4" t="s">
         <v>4</v>
@@ -10845,7 +10855,7 @@
         <v>355.22</v>
       </c>
       <c r="H110" s="5">
-        <v>315.16</v>
+        <v>315.16000000000003</v>
       </c>
       <c r="I110" s="5">
         <v>323.52</v>
@@ -10866,13 +10876,13 @@
         <v>484.24</v>
       </c>
       <c r="O110" s="5">
-        <v>558.0</v>
+        <v>558</v>
       </c>
       <c r="P110" s="5">
         <v>565.79</v>
       </c>
       <c r="Q110" s="5">
-        <v>556.56</v>
+        <v>556.55999999999995</v>
       </c>
       <c r="R110" s="5">
         <v>651.24</v>
@@ -10884,7 +10894,7 @@
         <v>473.26</v>
       </c>
       <c r="U110" s="5">
-        <v>606.43</v>
+        <v>606.42999999999995</v>
       </c>
       <c r="V110" s="5">
         <v>599.74</v>
@@ -10905,7 +10915,7 @@
         <v>506.48</v>
       </c>
       <c r="AB110" s="5">
-        <v>605.68</v>
+        <v>605.67999999999995</v>
       </c>
       <c r="AC110" s="5">
         <v>565.41</v>
@@ -10917,10 +10927,10 @@
         <v>493.96</v>
       </c>
       <c r="AF110" s="5">
-        <v>558.83</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>558.83000000000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A111" s="1"/>
       <c r="B111" s="4" t="s">
         <v>5</v>
@@ -10935,7 +10945,7 @@
         <v>195.83</v>
       </c>
       <c r="F111" s="5">
-        <v>238.0</v>
+        <v>238</v>
       </c>
       <c r="G111" s="5">
         <v>212.1</v>
@@ -10959,7 +10969,7 @@
         <v>257.62</v>
       </c>
       <c r="N111" s="5">
-        <v>289.78</v>
+        <v>289.77999999999997</v>
       </c>
       <c r="O111" s="5">
         <v>316.49</v>
@@ -10977,16 +10987,16 @@
         <v>250.16</v>
       </c>
       <c r="T111" s="5">
-        <v>314.9</v>
+        <v>314.89999999999998</v>
       </c>
       <c r="U111" s="5">
         <v>351.95</v>
       </c>
       <c r="V111" s="5">
-        <v>293.72</v>
+        <v>293.72000000000003</v>
       </c>
       <c r="W111" s="5">
-        <v>321.21</v>
+        <v>321.20999999999998</v>
       </c>
       <c r="X111" s="5">
         <v>350.18</v>
@@ -10995,7 +11005,7 @@
         <v>278.12</v>
       </c>
       <c r="Z111" s="5">
-        <v>264.16</v>
+        <v>264.16000000000003</v>
       </c>
       <c r="AA111" s="5">
         <v>255.65</v>
@@ -11016,7 +11026,7 @@
         <v>205.52</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="4" t="s">
         <v>6</v>
@@ -11055,7 +11065,7 @@
         <v>1788.46</v>
       </c>
       <c r="N112" s="5">
-        <v>2286.74</v>
+        <v>2286.7399999999998</v>
       </c>
       <c r="O112" s="5">
         <v>2300.62</v>
@@ -11079,31 +11089,31 @@
         <v>2650.12</v>
       </c>
       <c r="V112" s="5">
-        <v>2608.53</v>
+        <v>2608.5300000000002</v>
       </c>
       <c r="W112" s="5">
         <v>2350.5</v>
       </c>
       <c r="X112" s="5">
-        <v>2458.51</v>
+        <v>2458.5100000000002</v>
       </c>
       <c r="Y112" s="5">
         <v>2069.02</v>
       </c>
       <c r="Z112" s="5">
-        <v>2077.93</v>
+        <v>2077.9299999999998</v>
       </c>
       <c r="AA112" s="5">
         <v>2326.42</v>
       </c>
       <c r="AB112" s="5">
-        <v>2454.01</v>
+        <v>2454.0100000000002</v>
       </c>
       <c r="AC112" s="5">
         <v>2316.79</v>
       </c>
       <c r="AD112" s="5">
-        <v>2292.2</v>
+        <v>2292.1999999999998</v>
       </c>
       <c r="AE112" s="5">
         <v>2255.96</v>
@@ -11112,7 +11122,7 @@
         <v>2691.63</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="4" t="s">
         <v>7</v>
@@ -11121,7 +11131,7 @@
         <v>501.58</v>
       </c>
       <c r="D113" s="5">
-        <v>585.07</v>
+        <v>585.07000000000005</v>
       </c>
       <c r="E113" s="5">
         <v>707.08</v>
@@ -11130,7 +11140,7 @@
         <v>675.6</v>
       </c>
       <c r="G113" s="5">
-        <v>628.17</v>
+        <v>628.16999999999996</v>
       </c>
       <c r="H113" s="5">
         <v>355.86</v>
@@ -11145,7 +11155,7 @@
         <v>592.61</v>
       </c>
       <c r="L113" s="5">
-        <v>620.8</v>
+        <v>620.79999999999995</v>
       </c>
       <c r="M113" s="5">
         <v>572.4</v>
@@ -11196,115 +11206,115 @@
         <v>1201.7</v>
       </c>
       <c r="AC113" s="5">
-        <v>1127.16</v>
+        <v>1127.1600000000001</v>
       </c>
       <c r="AD113" s="5">
         <v>1109.58</v>
       </c>
       <c r="AE113" s="5">
-        <v>1236.34</v>
+        <v>1236.3399999999999</v>
       </c>
       <c r="AF113" s="5">
         <v>1695.68</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A114" s="1"/>
       <c r="B114" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE114" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF114" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A115" s="1"/>
       <c r="B115" s="4" t="s">
         <v>9</v>
@@ -11349,7 +11359,7 @@
         <v>118.48</v>
       </c>
       <c r="P115" s="5">
-        <v>133.67</v>
+        <v>133.66999999999999</v>
       </c>
       <c r="Q115" s="5">
         <v>153.68</v>
@@ -11358,13 +11368,13 @@
         <v>179.61</v>
       </c>
       <c r="S115" s="5">
-        <v>128.39</v>
+        <v>128.38999999999999</v>
       </c>
       <c r="T115" s="5">
         <v>153.82</v>
       </c>
       <c r="U115" s="5">
-        <v>175.0</v>
+        <v>175</v>
       </c>
       <c r="V115" s="5">
         <v>201.33</v>
@@ -11382,7 +11392,7 @@
         <v>125.62</v>
       </c>
       <c r="AA115" s="5">
-        <v>159.89</v>
+        <v>159.88999999999999</v>
       </c>
       <c r="AB115" s="5">
         <v>142.21</v>
@@ -11400,7 +11410,7 @@
         <v>113.63</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="4" t="s">
         <v>10</v>
@@ -11415,22 +11425,22 @@
         <v>65.42</v>
       </c>
       <c r="F116" s="5">
-        <v>38.87</v>
+        <v>38.869999999999997</v>
       </c>
       <c r="G116" s="5">
         <v>85.8</v>
       </c>
       <c r="H116" s="5">
-        <v>64.43</v>
+        <v>64.430000000000007</v>
       </c>
       <c r="I116" s="5">
-        <v>68.21</v>
+        <v>68.209999999999994</v>
       </c>
       <c r="J116" s="5">
         <v>71.69</v>
       </c>
       <c r="K116" s="5">
-        <v>64.49</v>
+        <v>64.489999999999995</v>
       </c>
       <c r="L116" s="5">
         <v>75.67</v>
@@ -11463,7 +11473,7 @@
         <v>180.51</v>
       </c>
       <c r="V116" s="5">
-        <v>134.36</v>
+        <v>134.36000000000001</v>
       </c>
       <c r="W116" s="5">
         <v>134.91</v>
@@ -11496,13 +11506,13 @@
         <v>98.63</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A117" s="1"/>
       <c r="B117" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="5">
-        <v>619.0</v>
+        <v>619</v>
       </c>
       <c r="D117" s="5">
         <v>723.79</v>
@@ -11565,19 +11575,19 @@
         <v>1151.78</v>
       </c>
       <c r="X117" s="5">
-        <v>1289.9</v>
+        <v>1289.9000000000001</v>
       </c>
       <c r="Y117" s="5">
-        <v>1174.88</v>
+        <v>1174.8800000000001</v>
       </c>
       <c r="Z117" s="5">
         <v>1014.34</v>
       </c>
       <c r="AA117" s="5">
-        <v>1031.16</v>
+        <v>1031.1600000000001</v>
       </c>
       <c r="AB117" s="5">
-        <v>1081.0</v>
+        <v>1081</v>
       </c>
       <c r="AC117" s="5">
         <v>993.13</v>
@@ -11592,7 +11602,7 @@
         <v>942.89</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
       <c r="B118" s="4" t="s">
         <v>12</v>
@@ -11625,10 +11635,10 @@
         <v>2027.18</v>
       </c>
       <c r="L118" s="5">
-        <v>2199.28</v>
+        <v>2199.2800000000002</v>
       </c>
       <c r="M118" s="5">
-        <v>2371.26</v>
+        <v>2371.2600000000002</v>
       </c>
       <c r="N118" s="5">
         <v>2925.9</v>
@@ -11646,13 +11656,13 @@
         <v>3097.06</v>
       </c>
       <c r="S118" s="5">
-        <v>2402.28</v>
+        <v>2402.2800000000002</v>
       </c>
       <c r="T118" s="5">
         <v>2703.66</v>
       </c>
       <c r="U118" s="5">
-        <v>3172.0</v>
+        <v>3172</v>
       </c>
       <c r="V118" s="5">
         <v>3443.62</v>
@@ -11679,7 +11689,7 @@
         <v>3774.64</v>
       </c>
       <c r="AD118" s="5">
-        <v>4228.35</v>
+        <v>4228.3500000000004</v>
       </c>
       <c r="AE118" s="5">
         <v>4194.03</v>
@@ -11688,7 +11698,7 @@
         <v>5041.68</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>9</v>
       </c>
@@ -11786,19 +11796,19 @@
         <v>859.56</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A120" s="1"/>
       <c r="B120" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C120" s="5">
-        <v>131.45</v>
+        <v>131.44999999999999</v>
       </c>
       <c r="D120" s="5">
-        <v>139.0</v>
+        <v>139</v>
       </c>
       <c r="E120" s="5">
-        <v>146.98</v>
+        <v>146.97999999999999</v>
       </c>
       <c r="F120" s="5">
         <v>158.72</v>
@@ -11828,7 +11838,7 @@
         <v>242.96</v>
       </c>
       <c r="O120" s="5">
-        <v>316.97</v>
+        <v>316.97000000000003</v>
       </c>
       <c r="P120" s="5">
         <v>404.53</v>
@@ -11882,7 +11892,7 @@
         <v>506.38</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A121" s="1"/>
       <c r="B121" s="4" t="s">
         <v>2</v>
@@ -11891,7 +11901,7 @@
         <v>61.71</v>
       </c>
       <c r="D121" s="5">
-        <v>73.96</v>
+        <v>73.959999999999994</v>
       </c>
       <c r="E121" s="5">
         <v>88.64</v>
@@ -11903,7 +11913,7 @@
         <v>127.31</v>
       </c>
       <c r="H121" s="5">
-        <v>152.58</v>
+        <v>152.58000000000001</v>
       </c>
       <c r="I121" s="5">
         <v>182.86</v>
@@ -11939,7 +11949,7 @@
         <v>352.45</v>
       </c>
       <c r="T121" s="5">
-        <v>537.42</v>
+        <v>537.41999999999996</v>
       </c>
       <c r="U121" s="5">
         <v>475.63</v>
@@ -11948,7 +11958,7 @@
         <v>437.11</v>
       </c>
       <c r="W121" s="5">
-        <v>314.04</v>
+        <v>314.04000000000002</v>
       </c>
       <c r="X121" s="5">
         <v>661.17</v>
@@ -11966,7 +11976,7 @@
         <v>335.7</v>
       </c>
       <c r="AC121" s="5">
-        <v>299.59</v>
+        <v>299.58999999999997</v>
       </c>
       <c r="AD121" s="5">
         <v>308.12</v>
@@ -11978,7 +11988,7 @@
         <v>455.25</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A122" s="1"/>
       <c r="B122" s="4" t="s">
         <v>3</v>
@@ -12002,10 +12012,10 @@
         <v>538.62</v>
       </c>
       <c r="I122" s="5">
-        <v>647.82</v>
+        <v>647.82000000000005</v>
       </c>
       <c r="J122" s="5">
-        <v>534.8</v>
+        <v>534.79999999999995</v>
       </c>
       <c r="K122" s="5">
         <v>438.83</v>
@@ -12074,7 +12084,7 @@
         <v>862.61</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
       <c r="B123" s="4" t="s">
         <v>4</v>
@@ -12110,7 +12120,7 @@
         <v>1873.94</v>
       </c>
       <c r="M123" s="5">
-        <v>2426.18</v>
+        <v>2426.1799999999998</v>
       </c>
       <c r="N123" s="5">
         <v>3222.76</v>
@@ -12170,7 +12180,7 @@
         <v>10080.84</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A124" s="1"/>
       <c r="B124" s="4" t="s">
         <v>5</v>
@@ -12182,10 +12192,10 @@
         <v>543.14</v>
       </c>
       <c r="E124" s="5">
-        <v>587.06</v>
+        <v>587.05999999999995</v>
       </c>
       <c r="F124" s="5">
-        <v>628.58</v>
+        <v>628.58000000000004</v>
       </c>
       <c r="G124" s="5">
         <v>678.3</v>
@@ -12209,7 +12219,7 @@
         <v>907.75</v>
       </c>
       <c r="N124" s="5">
-        <v>1182.0</v>
+        <v>1182</v>
       </c>
       <c r="O124" s="5">
         <v>1162.58</v>
@@ -12224,7 +12234,7 @@
         <v>1664.8</v>
       </c>
       <c r="S124" s="5">
-        <v>1097.88</v>
+        <v>1097.8800000000001</v>
       </c>
       <c r="T124" s="5">
         <v>1412.03</v>
@@ -12242,13 +12252,13 @@
         <v>1057.8</v>
       </c>
       <c r="Y124" s="5">
-        <v>1088.65</v>
+        <v>1088.6500000000001</v>
       </c>
       <c r="Z124" s="5">
         <v>1103.02</v>
       </c>
       <c r="AA124" s="5">
-        <v>1064.39</v>
+        <v>1064.3900000000001</v>
       </c>
       <c r="AB124" s="5">
         <v>954.21</v>
@@ -12266,7 +12276,7 @@
         <v>1740.24</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
       <c r="B125" s="4" t="s">
         <v>6</v>
@@ -12308,7 +12318,7 @@
         <v>4082.54</v>
       </c>
       <c r="O125" s="5">
-        <v>5125.65</v>
+        <v>5125.6499999999996</v>
       </c>
       <c r="P125" s="5">
         <v>6234.17</v>
@@ -12359,10 +12369,10 @@
         <v>8272.64</v>
       </c>
       <c r="AF125" s="5">
-        <v>8574.54</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>8574.5400000000009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A126" s="1"/>
       <c r="B126" s="4" t="s">
         <v>7</v>
@@ -12371,7 +12381,7 @@
         <v>288.52</v>
       </c>
       <c r="D126" s="5">
-        <v>312.47</v>
+        <v>312.47000000000003</v>
       </c>
       <c r="E126" s="5">
         <v>338.41</v>
@@ -12389,7 +12399,7 @@
         <v>702.06</v>
       </c>
       <c r="J126" s="5">
-        <v>595.45</v>
+        <v>595.45000000000005</v>
       </c>
       <c r="K126" s="5">
         <v>492.58</v>
@@ -12398,7 +12408,7 @@
         <v>475.45</v>
       </c>
       <c r="M126" s="5">
-        <v>576.67</v>
+        <v>576.66999999999996</v>
       </c>
       <c r="N126" s="5">
         <v>693.81</v>
@@ -12410,10 +12420,10 @@
         <v>900.99</v>
       </c>
       <c r="Q126" s="5">
-        <v>1166.0</v>
+        <v>1166</v>
       </c>
       <c r="R126" s="5">
-        <v>1548.0</v>
+        <v>1548</v>
       </c>
       <c r="S126" s="5">
         <v>945.64</v>
@@ -12458,7 +12468,7 @@
         <v>2735.07</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A127" s="1"/>
       <c r="B127" s="4" t="s">
         <v>8</v>
@@ -12491,7 +12501,7 @@
         <v>29.29</v>
       </c>
       <c r="L127" s="5">
-        <v>40.59</v>
+        <v>40.590000000000003</v>
       </c>
       <c r="M127" s="5">
         <v>56.78</v>
@@ -12518,7 +12528,7 @@
         <v>84.91</v>
       </c>
       <c r="U127" s="5">
-        <v>77.93</v>
+        <v>77.930000000000007</v>
       </c>
       <c r="V127" s="5">
         <v>93.87</v>
@@ -12554,103 +12564,103 @@
         <v>81.89</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A128" s="1"/>
       <c r="B128" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE128" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF128" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="4" t="s">
         <v>10</v>
@@ -12662,7 +12672,7 @@
         <v>271.55</v>
       </c>
       <c r="E129" s="5">
-        <v>312.41</v>
+        <v>312.41000000000003</v>
       </c>
       <c r="F129" s="5">
         <v>362.65</v>
@@ -12704,13 +12714,13 @@
         <v>1882.01</v>
       </c>
       <c r="S129" s="5">
-        <v>1084.11</v>
+        <v>1084.1099999999999</v>
       </c>
       <c r="T129" s="5">
         <v>1096.56</v>
       </c>
       <c r="U129" s="5">
-        <v>1156.34</v>
+        <v>1156.3399999999999</v>
       </c>
       <c r="V129" s="5">
         <v>932.92</v>
@@ -12728,7 +12738,7 @@
         <v>878.32</v>
       </c>
       <c r="AA129" s="5">
-        <v>1259.4</v>
+        <v>1259.4000000000001</v>
       </c>
       <c r="AB129" s="5">
         <v>1388.07</v>
@@ -12746,7 +12756,7 @@
         <v>1395.61</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A130" s="1"/>
       <c r="B130" s="4" t="s">
         <v>11</v>
@@ -12770,7 +12780,7 @@
         <v>2080.91</v>
       </c>
       <c r="I130" s="5">
-        <v>2386.07</v>
+        <v>2386.0700000000002</v>
       </c>
       <c r="J130" s="5">
         <v>2257.5</v>
@@ -12797,7 +12807,7 @@
         <v>4900.84</v>
       </c>
       <c r="R130" s="5">
-        <v>4935.65</v>
+        <v>4935.6499999999996</v>
       </c>
       <c r="S130" s="5">
         <v>3014.24</v>
@@ -12842,7 +12852,7 @@
         <v>6313.68</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A131" s="1"/>
       <c r="B131" s="4" t="s">
         <v>12</v>
@@ -12854,7 +12864,7 @@
         <v>1037.03</v>
       </c>
       <c r="E131" s="5">
-        <v>1205.15</v>
+        <v>1205.1500000000001</v>
       </c>
       <c r="F131" s="5">
         <v>1386.46</v>
@@ -12872,19 +12882,19 @@
         <v>2406.83</v>
       </c>
       <c r="K131" s="5">
-        <v>2398.01</v>
+        <v>2398.0100000000002</v>
       </c>
       <c r="L131" s="5">
-        <v>2427.07</v>
+        <v>2427.0700000000002</v>
       </c>
       <c r="M131" s="5">
         <v>3824.06</v>
       </c>
       <c r="N131" s="5">
-        <v>4658.77</v>
+        <v>4658.7700000000004</v>
       </c>
       <c r="O131" s="5">
-        <v>4894.65</v>
+        <v>4894.6499999999996</v>
       </c>
       <c r="P131" s="5">
         <v>6069.58</v>
@@ -12938,7 +12948,7 @@
         <v>10905.59</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>10</v>
       </c>
@@ -12949,7 +12959,7 @@
         <v>145.31</v>
       </c>
       <c r="D132" s="5">
-        <v>276.6</v>
+        <v>276.60000000000002</v>
       </c>
       <c r="E132" s="5">
         <v>352.82</v>
@@ -13036,7 +13046,7 @@
         <v>1697.38</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A133" s="1"/>
       <c r="B133" s="4" t="s">
         <v>1</v>
@@ -13057,16 +13067,16 @@
         <v>1293.06</v>
       </c>
       <c r="H133" s="5">
-        <v>1300.12</v>
+        <v>1300.1199999999999</v>
       </c>
       <c r="I133" s="5">
-        <v>1169.62</v>
+        <v>1169.6199999999999</v>
       </c>
       <c r="J133" s="5">
-        <v>1150.66</v>
+        <v>1150.6600000000001</v>
       </c>
       <c r="K133" s="5">
-        <v>1216.15</v>
+        <v>1216.1500000000001</v>
       </c>
       <c r="L133" s="5">
         <v>956.98</v>
@@ -13087,7 +13097,7 @@
         <v>1776.09</v>
       </c>
       <c r="R133" s="5">
-        <v>2402.8</v>
+        <v>2402.8000000000002</v>
       </c>
       <c r="S133" s="5">
         <v>1878.17</v>
@@ -13105,13 +13115,13 @@
         <v>4832.17</v>
       </c>
       <c r="X133" s="5">
-        <v>4250.36</v>
+        <v>4250.3599999999997</v>
       </c>
       <c r="Y133" s="5">
         <v>3024.35</v>
       </c>
       <c r="Z133" s="5">
-        <v>2486.57</v>
+        <v>2486.5700000000002</v>
       </c>
       <c r="AA133" s="5">
         <v>2840.95</v>
@@ -13123,7 +13133,7 @@
         <v>2897.02</v>
       </c>
       <c r="AD133" s="5">
-        <v>2577.45</v>
+        <v>2577.4499999999998</v>
       </c>
       <c r="AE133" s="5">
         <v>3069.14</v>
@@ -13132,13 +13142,13 @@
         <v>3711.63</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A134" s="1"/>
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C134" s="5">
-        <v>357.0</v>
+        <v>357</v>
       </c>
       <c r="D134" s="5">
         <v>423.86</v>
@@ -13159,7 +13169,7 @@
         <v>473.36</v>
       </c>
       <c r="J134" s="5">
-        <v>533.56</v>
+        <v>533.55999999999995</v>
       </c>
       <c r="K134" s="5">
         <v>476.7</v>
@@ -13183,7 +13193,7 @@
         <v>996.87</v>
       </c>
       <c r="R134" s="5">
-        <v>1182.1</v>
+        <v>1182.0999999999999</v>
       </c>
       <c r="S134" s="5">
         <v>973.4</v>
@@ -13216,7 +13226,7 @@
         <v>2102.48</v>
       </c>
       <c r="AC134" s="5">
-        <v>2258.05</v>
+        <v>2258.0500000000002</v>
       </c>
       <c r="AD134" s="5">
         <v>2157.14</v>
@@ -13228,7 +13238,7 @@
         <v>2457.21</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A135" s="1"/>
       <c r="B135" s="4" t="s">
         <v>3</v>
@@ -13243,7 +13253,7 @@
         <v>18813.96</v>
       </c>
       <c r="F135" s="5">
-        <v>20534.0</v>
+        <v>20534</v>
       </c>
       <c r="G135" s="5">
         <v>19131.75</v>
@@ -13252,7 +13262,7 @@
         <v>20968.89</v>
       </c>
       <c r="I135" s="5">
-        <v>20221.81</v>
+        <v>20221.810000000001</v>
       </c>
       <c r="J135" s="5">
         <v>22259.42</v>
@@ -13264,10 +13274,10 @@
         <v>23890.68</v>
       </c>
       <c r="M135" s="5">
-        <v>29988.4</v>
+        <v>29988.400000000001</v>
       </c>
       <c r="N135" s="5">
-        <v>35399.52</v>
+        <v>35399.519999999997</v>
       </c>
       <c r="O135" s="5">
         <v>37060.97</v>
@@ -13324,7 +13334,7 @@
         <v>64723.8</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
       <c r="B136" s="4" t="s">
         <v>4</v>
@@ -13363,7 +13373,7 @@
         <v>18650.3</v>
       </c>
       <c r="N136" s="5">
-        <v>21243.44</v>
+        <v>21243.439999999999</v>
       </c>
       <c r="O136" s="5">
         <v>21936.07</v>
@@ -13375,7 +13385,7 @@
         <v>27254.76</v>
       </c>
       <c r="R136" s="5">
-        <v>29745.28</v>
+        <v>29745.279999999999</v>
       </c>
       <c r="S136" s="5">
         <v>25692.6</v>
@@ -13384,7 +13394,7 @@
         <v>27137.63</v>
       </c>
       <c r="U136" s="5">
-        <v>31785.04</v>
+        <v>31785.040000000001</v>
       </c>
       <c r="V136" s="5">
         <v>31429.69</v>
@@ -13393,13 +13403,13 @@
         <v>32386.36</v>
       </c>
       <c r="X136" s="5">
-        <v>33822.0</v>
+        <v>33822</v>
       </c>
       <c r="Y136" s="5">
         <v>30811.86</v>
       </c>
       <c r="Z136" s="5">
-        <v>33300.0</v>
+        <v>33300</v>
       </c>
       <c r="AA136" s="5">
         <v>35733.06</v>
@@ -13411,7 +13421,7 @@
         <v>35688.28</v>
       </c>
       <c r="AD136" s="5">
-        <v>34796.64</v>
+        <v>34796.639999999999</v>
       </c>
       <c r="AE136" s="5">
         <v>39196.35</v>
@@ -13420,7 +13430,7 @@
         <v>40610.33</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A137" s="1"/>
       <c r="B137" s="4" t="s">
         <v>5</v>
@@ -13438,7 +13448,7 @@
         <v>8929.23</v>
       </c>
       <c r="G137" s="5">
-        <v>10207.05</v>
+        <v>10207.049999999999</v>
       </c>
       <c r="H137" s="5">
         <v>9939.09</v>
@@ -13450,7 +13460,7 @@
         <v>10008.81</v>
       </c>
       <c r="K137" s="5">
-        <v>10470.46</v>
+        <v>10470.459999999999</v>
       </c>
       <c r="L137" s="5">
         <v>11843.61</v>
@@ -13459,7 +13469,7 @@
         <v>15168.07</v>
       </c>
       <c r="N137" s="5">
-        <v>16495.19</v>
+        <v>16495.189999999999</v>
       </c>
       <c r="O137" s="5">
         <v>16124.81</v>
@@ -13516,7 +13526,7 @@
         <v>34321.33</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A138" s="1"/>
       <c r="B138" s="4" t="s">
         <v>6</v>
@@ -13528,10 +13538,10 @@
         <v>991.05</v>
       </c>
       <c r="E138" s="5">
-        <v>1259.61</v>
+        <v>1259.6099999999999</v>
       </c>
       <c r="F138" s="5">
-        <v>1224.88</v>
+        <v>1224.8800000000001</v>
       </c>
       <c r="G138" s="5">
         <v>1097.96</v>
@@ -13552,7 +13562,7 @@
         <v>959.35</v>
       </c>
       <c r="M138" s="5">
-        <v>1089.61</v>
+        <v>1089.6099999999999</v>
       </c>
       <c r="N138" s="5">
         <v>1428.91</v>
@@ -13603,7 +13613,7 @@
         <v>3052.7</v>
       </c>
       <c r="AD138" s="5">
-        <v>2905.0</v>
+        <v>2905</v>
       </c>
       <c r="AE138" s="5">
         <v>3470.99</v>
@@ -13612,7 +13622,7 @@
         <v>3451.24</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A139" s="1"/>
       <c r="B139" s="4" t="s">
         <v>7</v>
@@ -13678,7 +13688,7 @@
         <v>1386.82</v>
       </c>
       <c r="W139" s="5">
-        <v>1442.0</v>
+        <v>1442</v>
       </c>
       <c r="X139" s="5">
         <v>2632.9</v>
@@ -13693,7 +13703,7 @@
         <v>1962.48</v>
       </c>
       <c r="AB139" s="5">
-        <v>2361.51</v>
+        <v>2361.5100000000002</v>
       </c>
       <c r="AC139" s="5">
         <v>2517.75</v>
@@ -13708,7 +13718,7 @@
         <v>2293.96</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A140" s="1"/>
       <c r="B140" s="4" t="s">
         <v>8</v>
@@ -13717,13 +13727,13 @@
         <v>21.77</v>
       </c>
       <c r="D140" s="5">
-        <v>37.87</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="E140" s="5">
         <v>39.97</v>
       </c>
       <c r="F140" s="5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="G140" s="5">
         <v>49.4</v>
@@ -13765,7 +13775,7 @@
         <v>99.05</v>
       </c>
       <c r="T140" s="5">
-        <v>131.2</v>
+        <v>131.19999999999999</v>
       </c>
       <c r="U140" s="5">
         <v>168.41</v>
@@ -13798,13 +13808,13 @@
         <v>300.75</v>
       </c>
       <c r="AE140" s="5">
-        <v>292.79</v>
+        <v>292.79000000000002</v>
       </c>
       <c r="AF140" s="5">
         <v>299.25</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A141" s="1"/>
       <c r="B141" s="4" t="s">
         <v>9</v>
@@ -13819,7 +13829,7 @@
         <v>230.65</v>
       </c>
       <c r="F141" s="5">
-        <v>272.1</v>
+        <v>272.10000000000002</v>
       </c>
       <c r="G141" s="5">
         <v>289.68</v>
@@ -13852,7 +13862,7 @@
         <v>966.92</v>
       </c>
       <c r="Q141" s="5">
-        <v>1103.0</v>
+        <v>1103</v>
       </c>
       <c r="R141" s="5">
         <v>953.63</v>
@@ -13882,7 +13892,7 @@
         <v>1264.97</v>
       </c>
       <c r="AA141" s="5">
-        <v>1384.0</v>
+        <v>1384</v>
       </c>
       <c r="AB141" s="5">
         <v>1358.29</v>
@@ -13900,103 +13910,103 @@
         <v>1639.91</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A142" s="1"/>
       <c r="B142" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C142" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE142" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF142" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A143" s="1"/>
       <c r="B143" s="4" t="s">
         <v>11</v>
@@ -14011,13 +14021,13 @@
         <v>7281.47</v>
       </c>
       <c r="F143" s="5">
-        <v>8676.21</v>
+        <v>8676.2099999999991</v>
       </c>
       <c r="G143" s="5">
         <v>8465.9</v>
       </c>
       <c r="H143" s="5">
-        <v>9036.38</v>
+        <v>9036.3799999999992</v>
       </c>
       <c r="I143" s="5">
         <v>8682.9</v>
@@ -14035,16 +14045,16 @@
         <v>14582.4</v>
       </c>
       <c r="N143" s="5">
-        <v>16481.51</v>
+        <v>16481.509999999998</v>
       </c>
       <c r="O143" s="5">
         <v>16206.8</v>
       </c>
       <c r="P143" s="5">
-        <v>17020.24</v>
+        <v>17020.240000000002</v>
       </c>
       <c r="Q143" s="5">
-        <v>19579.69</v>
+        <v>19579.689999999999</v>
       </c>
       <c r="R143" s="5">
         <v>20068.25</v>
@@ -14068,7 +14078,7 @@
         <v>22571.03</v>
       </c>
       <c r="Y143" s="5">
-        <v>20731.9</v>
+        <v>20731.900000000001</v>
       </c>
       <c r="Z143" s="5">
         <v>22858.23</v>
@@ -14083,7 +14093,7 @@
         <v>22707.22</v>
       </c>
       <c r="AD143" s="5">
-        <v>20163.49</v>
+        <v>20163.490000000002</v>
       </c>
       <c r="AE143" s="5">
         <v>22313.31</v>
@@ -14092,7 +14102,7 @@
         <v>22132.84</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A144" s="1"/>
       <c r="B144" s="4" t="s">
         <v>12</v>
@@ -14107,28 +14117,28 @@
         <v>3837.47</v>
       </c>
       <c r="F144" s="5">
-        <v>4296.73</v>
+        <v>4296.7299999999996</v>
       </c>
       <c r="G144" s="5">
-        <v>4626.94</v>
+        <v>4626.9399999999996</v>
       </c>
       <c r="H144" s="5">
-        <v>4588.06</v>
+        <v>4588.0600000000004</v>
       </c>
       <c r="I144" s="5">
-        <v>4742.4</v>
+        <v>4742.3999999999996</v>
       </c>
       <c r="J144" s="5">
         <v>5571.96</v>
       </c>
       <c r="K144" s="5">
-        <v>5049.1</v>
+        <v>5049.1000000000004</v>
       </c>
       <c r="L144" s="5">
         <v>5432.64</v>
       </c>
       <c r="M144" s="5">
-        <v>6411.0</v>
+        <v>6411</v>
       </c>
       <c r="N144" s="5">
         <v>7178.91</v>
@@ -14140,13 +14150,13 @@
         <v>9400.75</v>
       </c>
       <c r="Q144" s="5">
-        <v>10120.7</v>
+        <v>10120.700000000001</v>
       </c>
       <c r="R144" s="5">
         <v>11016.3</v>
       </c>
       <c r="S144" s="5">
-        <v>7851.0</v>
+        <v>7851</v>
       </c>
       <c r="T144" s="5">
         <v>8639.9</v>
@@ -14188,7 +14198,7 @@
         <v>19573.55</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>11</v>
       </c>
@@ -14196,7 +14206,7 @@
         <v>0</v>
       </c>
       <c r="C145" s="5">
-        <v>2399.26</v>
+        <v>2399.2600000000002</v>
       </c>
       <c r="D145" s="5">
         <v>2946.92</v>
@@ -14229,7 +14239,7 @@
         <v>3705.75</v>
       </c>
       <c r="N145" s="5">
-        <v>4385.15</v>
+        <v>4385.1499999999996</v>
       </c>
       <c r="O145" s="5">
         <v>4730.41</v>
@@ -14244,7 +14254,7 @@
         <v>7581.75</v>
       </c>
       <c r="S145" s="5">
-        <v>4432.73</v>
+        <v>4432.7299999999996</v>
       </c>
       <c r="T145" s="5">
         <v>4977.82</v>
@@ -14265,7 +14275,7 @@
         <v>5607.53</v>
       </c>
       <c r="Z145" s="5">
-        <v>5213.85</v>
+        <v>5213.8500000000004</v>
       </c>
       <c r="AA145" s="5">
         <v>5733.42</v>
@@ -14286,19 +14296,19 @@
         <v>5445.84</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A146" s="1"/>
       <c r="B146" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C146" s="5">
-        <v>622.05</v>
+        <v>622.04999999999995</v>
       </c>
       <c r="D146" s="5">
         <v>806.82</v>
       </c>
       <c r="E146" s="5">
-        <v>1067.1</v>
+        <v>1067.0999999999999</v>
       </c>
       <c r="F146" s="5">
         <v>1323.05</v>
@@ -14367,13 +14377,13 @@
         <v>2317.52</v>
       </c>
       <c r="AB146" s="5">
-        <v>2538.93</v>
+        <v>2538.9299999999998</v>
       </c>
       <c r="AC146" s="5">
         <v>2448.41</v>
       </c>
       <c r="AD146" s="5">
-        <v>2230.95</v>
+        <v>2230.9499999999998</v>
       </c>
       <c r="AE146" s="5">
         <v>2735.95</v>
@@ -14382,7 +14392,7 @@
         <v>3093.21</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="4" t="s">
         <v>2</v>
@@ -14442,7 +14452,7 @@
         <v>6780.98</v>
       </c>
       <c r="U147" s="5">
-        <v>8163.0</v>
+        <v>8163</v>
       </c>
       <c r="V147" s="5">
         <v>6822.04</v>
@@ -14478,7 +14488,7 @@
         <v>7678.65</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A148" s="1"/>
       <c r="B148" s="4" t="s">
         <v>3</v>
@@ -14490,7 +14500,7 @@
         <v>19100.02</v>
       </c>
       <c r="E148" s="5">
-        <v>21979.6</v>
+        <v>21979.599999999999</v>
       </c>
       <c r="F148" s="5">
         <v>24173.86</v>
@@ -14532,7 +14542,7 @@
         <v>32630.1</v>
       </c>
       <c r="S148" s="5">
-        <v>26216.72</v>
+        <v>26216.720000000001</v>
       </c>
       <c r="T148" s="5">
         <v>28686.66</v>
@@ -14574,7 +14584,7 @@
         <v>30472.53</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A149" s="1"/>
       <c r="B149" s="4" t="s">
         <v>4</v>
@@ -14601,7 +14611,7 @@
         <v>32662.21</v>
       </c>
       <c r="J149" s="5">
-        <v>33814.59</v>
+        <v>33814.589999999997</v>
       </c>
       <c r="K149" s="5">
         <v>33054.71</v>
@@ -14610,7 +14620,7 @@
         <v>32479.01</v>
       </c>
       <c r="M149" s="5">
-        <v>33289.16</v>
+        <v>33289.160000000003</v>
       </c>
       <c r="N149" s="5">
         <v>39529.54</v>
@@ -14652,7 +14662,7 @@
         <v>43764.26</v>
       </c>
       <c r="AA149" s="5">
-        <v>46509.12</v>
+        <v>46509.120000000003</v>
       </c>
       <c r="AB149" s="5">
         <v>47519.92</v>
@@ -14664,19 +14674,19 @@
         <v>40403.4</v>
       </c>
       <c r="AE149" s="5">
-        <v>40867.59</v>
+        <v>40867.589999999997</v>
       </c>
       <c r="AF149" s="5">
-        <v>41338.27</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>41338.269999999997</v>
+      </c>
+    </row>
+    <row r="150" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A150" s="1"/>
       <c r="B150" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C150" s="5">
-        <v>8291.04</v>
+        <v>8291.0400000000009</v>
       </c>
       <c r="D150" s="5">
         <v>9649.43</v>
@@ -14718,7 +14728,7 @@
         <v>17006.64</v>
       </c>
       <c r="Q150" s="5">
-        <v>17763.26</v>
+        <v>17763.259999999998</v>
       </c>
       <c r="R150" s="5">
         <v>16995.12</v>
@@ -14760,13 +14770,13 @@
         <v>10724.89</v>
       </c>
       <c r="AE150" s="5">
-        <v>12523.0</v>
+        <v>12523</v>
       </c>
       <c r="AF150" s="5">
         <v>11314.53</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A151" s="1"/>
       <c r="B151" s="4" t="s">
         <v>6</v>
@@ -14847,7 +14857,7 @@
         <v>7326.65</v>
       </c>
       <c r="AB151" s="5">
-        <v>8315.97</v>
+        <v>8315.9699999999993</v>
       </c>
       <c r="AC151" s="5">
         <v>8276.23</v>
@@ -14862,13 +14872,13 @@
         <v>7241.38</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A152" s="1"/>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="5">
-        <v>1194.9</v>
+        <v>1194.9000000000001</v>
       </c>
       <c r="D152" s="5">
         <v>1569.96</v>
@@ -14913,7 +14923,7 @@
         <v>3509.76</v>
       </c>
       <c r="R152" s="5">
-        <v>4359.19</v>
+        <v>4359.1899999999996</v>
       </c>
       <c r="S152" s="5">
         <v>3098.24</v>
@@ -14946,7 +14956,7 @@
         <v>7773.57</v>
       </c>
       <c r="AC152" s="5">
-        <v>4765.98</v>
+        <v>4765.9799999999996</v>
       </c>
       <c r="AD152" s="5">
         <v>5328.96</v>
@@ -14958,7 +14968,7 @@
         <v>6146.52</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A153" s="1"/>
       <c r="B153" s="4" t="s">
         <v>8</v>
@@ -14982,7 +14992,7 @@
         <v>572.53</v>
       </c>
       <c r="I153" s="5">
-        <v>524.18</v>
+        <v>524.17999999999995</v>
       </c>
       <c r="J153" s="5">
         <v>457.38</v>
@@ -15015,7 +15025,7 @@
         <v>500.58</v>
       </c>
       <c r="T153" s="5">
-        <v>585.7</v>
+        <v>585.70000000000005</v>
       </c>
       <c r="U153" s="5">
         <v>784.35</v>
@@ -15051,10 +15061,10 @@
         <v>1237.07</v>
       </c>
       <c r="AF153" s="5">
-        <v>1079.4</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>1079.4000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
       <c r="B154" s="4" t="s">
         <v>9</v>
@@ -15063,7 +15073,7 @@
         <v>1686.32</v>
       </c>
       <c r="D154" s="5">
-        <v>2169.57</v>
+        <v>2169.5700000000002</v>
       </c>
       <c r="E154" s="5">
         <v>2892.8</v>
@@ -15075,13 +15085,13 @@
         <v>2694.21</v>
       </c>
       <c r="H154" s="5">
-        <v>2541.55</v>
+        <v>2541.5500000000002</v>
       </c>
       <c r="I154" s="5">
         <v>2077.67</v>
       </c>
       <c r="J154" s="5">
-        <v>2105.97</v>
+        <v>2105.9699999999998</v>
       </c>
       <c r="K154" s="5">
         <v>2198.54</v>
@@ -15102,7 +15112,7 @@
         <v>3906.3</v>
       </c>
       <c r="Q154" s="5">
-        <v>4136.98</v>
+        <v>4136.9799999999996</v>
       </c>
       <c r="R154" s="5">
         <v>5173.32</v>
@@ -15147,10 +15157,10 @@
         <v>2166.71</v>
       </c>
       <c r="AF154" s="5">
-        <v>2095.3</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>2095.3000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A155" s="1"/>
       <c r="B155" s="4" t="s">
         <v>10</v>
@@ -15168,7 +15178,7 @@
         <v>9789.34</v>
       </c>
       <c r="G155" s="5">
-        <v>9960.62</v>
+        <v>9960.6200000000008</v>
       </c>
       <c r="H155" s="5">
         <v>10695.42</v>
@@ -15198,7 +15208,7 @@
         <v>22712.16</v>
       </c>
       <c r="Q155" s="5">
-        <v>19678.85</v>
+        <v>19678.849999999999</v>
       </c>
       <c r="R155" s="5">
         <v>18630.61</v>
@@ -15234,7 +15244,7 @@
         <v>13983.97</v>
       </c>
       <c r="AC155" s="5">
-        <v>13721.0</v>
+        <v>13721</v>
       </c>
       <c r="AD155" s="5">
         <v>10947.66</v>
@@ -15246,112 +15256,112 @@
         <v>11864.07</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A156" s="1"/>
       <c r="B156" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE156" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF156" s="5">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A157" s="1"/>
       <c r="B157" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C157" s="5">
-        <v>23318.96</v>
+        <v>23318.959999999999</v>
       </c>
       <c r="D157" s="5">
-        <v>26553.44</v>
+        <v>26553.439999999999</v>
       </c>
       <c r="E157" s="5">
         <v>29181.57</v>
@@ -15360,10 +15370,10 @@
         <v>31446.11</v>
       </c>
       <c r="G157" s="5">
-        <v>35000.63</v>
+        <v>35000.629999999997</v>
       </c>
       <c r="H157" s="5">
-        <v>35997.84</v>
+        <v>35997.839999999997</v>
       </c>
       <c r="I157" s="5">
         <v>39988.14</v>
@@ -15375,7 +15385,7 @@
         <v>42053.77</v>
       </c>
       <c r="L157" s="5">
-        <v>41865.23</v>
+        <v>41865.230000000003</v>
       </c>
       <c r="M157" s="5">
         <v>45771.76</v>
@@ -15396,7 +15406,7 @@
         <v>60046.41</v>
       </c>
       <c r="S157" s="5">
-        <v>48637.92</v>
+        <v>48637.919999999998</v>
       </c>
       <c r="T157" s="5">
         <v>53361.23</v>
@@ -15438,7 +15448,7 @@
         <v>64181.43</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>12</v>
       </c>
@@ -15449,7 +15459,7 @@
         <v>8271.6</v>
       </c>
       <c r="D158" s="9">
-        <v>9780.8</v>
+        <v>9780.7999999999993</v>
       </c>
       <c r="E158" s="9">
         <v>10788.4</v>
@@ -15473,7 +15483,7 @@
         <v>10944.9</v>
       </c>
       <c r="L158" s="9">
-        <v>13084.0</v>
+        <v>13084</v>
       </c>
       <c r="M158" s="9">
         <v>13104.1</v>
@@ -15482,7 +15492,7 @@
         <v>14270.9</v>
       </c>
       <c r="O158" s="9">
-        <v>15771.0</v>
+        <v>15771</v>
       </c>
       <c r="P158" s="9">
         <v>17782.3</v>
@@ -15491,10 +15501,10 @@
         <v>19206.8</v>
       </c>
       <c r="R158" s="9">
-        <v>22456.8</v>
+        <v>22456.799999999999</v>
       </c>
       <c r="S158" s="9">
-        <v>19604.4</v>
+        <v>19604.400000000001</v>
       </c>
       <c r="T158" s="9">
         <v>21806.9</v>
@@ -15527,16 +15537,16 @@
         <v>26025.18</v>
       </c>
       <c r="AD158" s="9">
-        <v>23489.0</v>
+        <v>23489</v>
       </c>
       <c r="AE158" s="9">
-        <v>26453.92</v>
+        <v>26453.919999999998</v>
       </c>
       <c r="AF158" s="9">
         <v>30209.79</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B159" s="7" t="s">
         <v>1</v>
       </c>
@@ -15556,7 +15566,7 @@
         <v>15912.4</v>
       </c>
       <c r="H159" s="9">
-        <v>15157.0</v>
+        <v>15157</v>
       </c>
       <c r="I159" s="9">
         <v>13413.5</v>
@@ -15580,10 +15590,10 @@
         <v>15345.6</v>
       </c>
       <c r="P159" s="9">
-        <v>19227.4</v>
+        <v>19227.400000000001</v>
       </c>
       <c r="Q159" s="9">
-        <v>24628.4</v>
+        <v>24628.400000000001</v>
       </c>
       <c r="R159" s="9">
         <v>32910.1</v>
@@ -15622,7 +15632,7 @@
         <v>43083.3</v>
       </c>
       <c r="AD159" s="9">
-        <v>35046.88</v>
+        <v>35046.879999999997</v>
       </c>
       <c r="AE159" s="9">
         <v>46934.96</v>
@@ -15631,7 +15641,7 @@
         <v>53577.71</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B160" s="7" t="s">
         <v>2</v>
       </c>
@@ -15645,13 +15655,13 @@
         <v>126024.2</v>
       </c>
       <c r="F160" s="9">
-        <v>132584.0</v>
+        <v>132584</v>
       </c>
       <c r="G160" s="9">
-        <v>150124.2</v>
+        <v>150124.20000000001</v>
       </c>
       <c r="H160" s="9">
-        <v>154152.0</v>
+        <v>154152</v>
       </c>
       <c r="I160" s="9">
         <v>162956.4</v>
@@ -15669,7 +15679,7 @@
         <v>169480.7</v>
       </c>
       <c r="N160" s="9">
-        <v>187713.0</v>
+        <v>187713</v>
       </c>
       <c r="O160" s="9">
         <v>211420.2</v>
@@ -15684,16 +15694,16 @@
         <v>260914.3</v>
       </c>
       <c r="S160" s="9">
-        <v>204728.0</v>
+        <v>204728</v>
       </c>
       <c r="T160" s="9">
         <v>248194.2</v>
       </c>
       <c r="U160" s="9">
-        <v>281291.53</v>
+        <v>281291.53000000003</v>
       </c>
       <c r="V160" s="9">
-        <v>292650.53</v>
+        <v>292650.53000000003</v>
       </c>
       <c r="W160" s="9">
         <v>300754.87</v>
@@ -15702,10 +15712,10 @@
         <v>312420.81</v>
       </c>
       <c r="Y160" s="9">
-        <v>280016.65</v>
+        <v>280016.65000000002</v>
       </c>
       <c r="Z160" s="9">
-        <v>265960.65</v>
+        <v>265960.65000000002</v>
       </c>
       <c r="AA160" s="9">
         <v>282116.49</v>
@@ -15720,13 +15730,13 @@
         <v>255327.51</v>
       </c>
       <c r="AE160" s="9">
-        <v>307758.09</v>
+        <v>307758.09000000003</v>
       </c>
       <c r="AF160" s="9">
         <v>356112.63</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B161" s="7" t="s">
         <v>3</v>
       </c>
@@ -15752,13 +15762,13 @@
         <v>18841.7</v>
       </c>
       <c r="J161" s="9">
-        <v>20398.0</v>
+        <v>20398</v>
       </c>
       <c r="K161" s="9">
-        <v>20124.9</v>
+        <v>20124.900000000001</v>
       </c>
       <c r="L161" s="9">
-        <v>19347.4</v>
+        <v>19347.400000000001</v>
       </c>
       <c r="M161" s="9">
         <v>17393.7</v>
@@ -15773,13 +15783,13 @@
         <v>24385.7</v>
       </c>
       <c r="Q161" s="9">
-        <v>27819.6</v>
+        <v>27819.599999999999</v>
       </c>
       <c r="R161" s="9">
         <v>29949.1</v>
       </c>
       <c r="S161" s="9">
-        <v>27044.8</v>
+        <v>27044.799999999999</v>
       </c>
       <c r="T161" s="9">
         <v>27777.4</v>
@@ -15791,7 +15801,7 @@
         <v>31938.79</v>
       </c>
       <c r="W161" s="9">
-        <v>33873.92</v>
+        <v>33873.919999999998</v>
       </c>
       <c r="X161" s="9">
         <v>32449.9</v>
@@ -15803,10 +15813,10 @@
         <v>32438.86</v>
       </c>
       <c r="AA161" s="9">
-        <v>34198.16</v>
+        <v>34198.160000000003</v>
       </c>
       <c r="AB161" s="9">
-        <v>37361.04</v>
+        <v>37361.040000000001</v>
       </c>
       <c r="AC161" s="9">
         <v>35434.15</v>
@@ -15821,12 +15831,12 @@
         <v>46943.57</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C162" s="9">
-        <v>18956.9</v>
+        <v>18956.900000000001</v>
       </c>
       <c r="D162" s="9">
         <v>19236.8</v>
@@ -15838,7 +15848,7 @@
         <v>23473.9</v>
       </c>
       <c r="G162" s="9">
-        <v>24466.8</v>
+        <v>24466.799999999999</v>
       </c>
       <c r="H162" s="9">
         <v>26641.9</v>
@@ -15859,22 +15869,22 @@
         <v>28847.9</v>
       </c>
       <c r="N162" s="9">
-        <v>31380.8</v>
+        <v>31380.799999999999</v>
       </c>
       <c r="O162" s="9">
-        <v>34149.2</v>
+        <v>34149.199999999997</v>
       </c>
       <c r="P162" s="9">
-        <v>41319.6</v>
+        <v>41319.599999999999</v>
       </c>
       <c r="Q162" s="9">
-        <v>49652.0</v>
+        <v>49652</v>
       </c>
       <c r="R162" s="9">
         <v>54732.3</v>
       </c>
       <c r="S162" s="9">
-        <v>43298.4</v>
+        <v>43298.400000000001</v>
       </c>
       <c r="T162" s="9">
         <v>48201.2</v>
@@ -15916,7 +15926,7 @@
         <v>72922.33</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B163" s="7" t="s">
         <v>5</v>
       </c>
@@ -15933,19 +15943,19 @@
         <v>8791.5</v>
       </c>
       <c r="G163" s="9">
-        <v>8982.3</v>
+        <v>8982.2999999999993</v>
       </c>
       <c r="H163" s="9">
-        <v>9036.7</v>
+        <v>9036.7000000000007</v>
       </c>
       <c r="I163" s="9">
-        <v>10085.7</v>
+        <v>10085.700000000001</v>
       </c>
       <c r="J163" s="9">
         <v>10925.8</v>
       </c>
       <c r="K163" s="9">
-        <v>9922.7</v>
+        <v>9922.7000000000007</v>
       </c>
       <c r="L163" s="9">
         <v>10097.6</v>
@@ -15954,7 +15964,7 @@
         <v>10578.8</v>
       </c>
       <c r="N163" s="9">
-        <v>10719.0</v>
+        <v>10719</v>
       </c>
       <c r="O163" s="9">
         <v>11541.4</v>
@@ -15981,7 +15991,7 @@
         <v>16103.27</v>
       </c>
       <c r="W163" s="9">
-        <v>16758.19</v>
+        <v>16758.189999999999</v>
       </c>
       <c r="X163" s="9">
         <v>16976.75</v>
@@ -16002,7 +16012,7 @@
         <v>23790.18</v>
       </c>
       <c r="AD163" s="9">
-        <v>19921.65</v>
+        <v>19921.650000000001</v>
       </c>
       <c r="AE163" s="9">
         <v>21660.53</v>
@@ -16011,7 +16021,7 @@
         <v>27416.68</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B164" s="7" t="s">
         <v>6</v>
       </c>
@@ -16022,7 +16032,7 @@
         <v>53480.7</v>
       </c>
       <c r="E164" s="9">
-        <v>64298.0</v>
+        <v>64298</v>
       </c>
       <c r="F164" s="9">
         <v>67535.7</v>
@@ -16037,7 +16047,7 @@
         <v>57733.4</v>
       </c>
       <c r="J164" s="9">
-        <v>64537.6</v>
+        <v>64537.599999999999</v>
       </c>
       <c r="K164" s="9">
         <v>57639.1</v>
@@ -16049,10 +16059,10 @@
         <v>52063.7</v>
       </c>
       <c r="N164" s="9">
-        <v>54400.0</v>
+        <v>54400</v>
       </c>
       <c r="O164" s="9">
-        <v>55409.6</v>
+        <v>55409.599999999999</v>
       </c>
       <c r="P164" s="9">
         <v>59649.3</v>
@@ -16061,7 +16071,7 @@
         <v>62664.9</v>
       </c>
       <c r="R164" s="9">
-        <v>66579.2</v>
+        <v>66579.199999999997</v>
       </c>
       <c r="S164" s="9">
         <v>51179.7</v>
@@ -16070,16 +16080,16 @@
         <v>60545.4</v>
       </c>
       <c r="U164" s="9">
-        <v>65799.74</v>
+        <v>65799.740000000005</v>
       </c>
       <c r="V164" s="9">
-        <v>69975.79</v>
+        <v>69975.789999999994</v>
       </c>
       <c r="W164" s="9">
         <v>65216.09</v>
       </c>
       <c r="X164" s="9">
-        <v>66827.4</v>
+        <v>66827.399999999994</v>
       </c>
       <c r="Y164" s="9">
         <v>62471.83</v>
@@ -16091,7 +16101,7 @@
         <v>67695.89</v>
       </c>
       <c r="AB164" s="9">
-        <v>74966.72</v>
+        <v>74966.720000000001</v>
       </c>
       <c r="AC164" s="9">
         <v>74652.75</v>
@@ -16103,10 +16113,10 @@
         <v>74564.69</v>
       </c>
       <c r="AF164" s="9">
-        <v>80317.15</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>80317.149999999994</v>
+      </c>
+    </row>
+    <row r="165" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B165" s="7" t="s">
         <v>7</v>
       </c>
@@ -16129,10 +16139,10 @@
         <v>16538.2</v>
       </c>
       <c r="I165" s="9">
-        <v>22165.0</v>
+        <v>22165</v>
       </c>
       <c r="J165" s="9">
-        <v>27337.6</v>
+        <v>27337.599999999999</v>
       </c>
       <c r="K165" s="9">
         <v>22196.7</v>
@@ -16153,13 +16163,13 @@
         <v>32455.3</v>
       </c>
       <c r="Q165" s="9">
-        <v>34702.8</v>
+        <v>34702.800000000003</v>
       </c>
       <c r="R165" s="9">
         <v>34807.4</v>
       </c>
       <c r="S165" s="9">
-        <v>28640.0</v>
+        <v>28640</v>
       </c>
       <c r="T165" s="9">
         <v>38843.9</v>
@@ -16171,7 +16181,7 @@
         <v>42282.57</v>
       </c>
       <c r="W165" s="9">
-        <v>41686.59</v>
+        <v>41686.589999999997</v>
       </c>
       <c r="X165" s="9">
         <v>44471.33</v>
@@ -16183,7 +16193,7 @@
         <v>42266.35</v>
       </c>
       <c r="AA165" s="9">
-        <v>48276.64</v>
+        <v>48276.639999999999</v>
       </c>
       <c r="AB165" s="9">
         <v>56344.31</v>
@@ -16195,13 +16205,13 @@
         <v>51218.02</v>
       </c>
       <c r="AE165" s="9">
-        <v>65942.4</v>
+        <v>65942.399999999994</v>
       </c>
       <c r="AF165" s="9">
         <v>71470.42</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B166" s="7" t="s">
         <v>8</v>
       </c>
@@ -16251,7 +16261,7 @@
         <v>2813.3</v>
       </c>
       <c r="R166" s="9">
-        <v>2570.0</v>
+        <v>2570</v>
       </c>
       <c r="S166" s="9">
         <v>2160.5</v>
@@ -16296,27 +16306,27 @@
         <v>4182.43</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B167" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C167" s="9">
-        <v>2196.7</v>
+        <v>2196.6999999999998</v>
       </c>
       <c r="D167" s="9">
-        <v>2172.7</v>
+        <v>2172.6999999999998</v>
       </c>
       <c r="E167" s="9">
         <v>2750.9</v>
       </c>
       <c r="F167" s="9">
-        <v>3106.0</v>
+        <v>3106</v>
       </c>
       <c r="G167" s="9">
         <v>2999.9</v>
       </c>
       <c r="H167" s="9">
-        <v>3626.0</v>
+        <v>3626</v>
       </c>
       <c r="I167" s="9">
         <v>2808.9</v>
@@ -16328,7 +16338,7 @@
         <v>2961.7</v>
       </c>
       <c r="L167" s="9">
-        <v>2525.2</v>
+        <v>2525.1999999999998</v>
       </c>
       <c r="M167" s="9">
         <v>2821.3</v>
@@ -16382,7 +16392,7 @@
         <v>5333.72</v>
       </c>
       <c r="AD167" s="9">
-        <v>4454.77</v>
+        <v>4454.7700000000004</v>
       </c>
       <c r="AE167" s="9">
         <v>5479.21</v>
@@ -16391,7 +16401,7 @@
         <v>6514.94</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B168" s="7" t="s">
         <v>10</v>
       </c>
@@ -16399,7 +16409,7 @@
         <v>4180.8</v>
       </c>
       <c r="D168" s="9">
-        <v>4645.0</v>
+        <v>4645</v>
       </c>
       <c r="E168" s="9">
         <v>5529.5</v>
@@ -16441,13 +16451,13 @@
         <v>9879.4</v>
       </c>
       <c r="R168" s="9">
-        <v>12283.0</v>
+        <v>12283</v>
       </c>
       <c r="S168" s="9">
-        <v>8750.8</v>
+        <v>8750.7999999999993</v>
       </c>
       <c r="T168" s="9">
-        <v>10150.2</v>
+        <v>10150.200000000001</v>
       </c>
       <c r="U168" s="9">
         <v>11031.59</v>
@@ -16486,7 +16496,7 @@
         <v>26479.75</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B169" s="7" t="s">
         <v>11</v>
       </c>
@@ -16494,7 +16504,7 @@
         <v>26375.8</v>
       </c>
       <c r="D169" s="9">
-        <v>26832.8</v>
+        <v>26832.799999999999</v>
       </c>
       <c r="E169" s="9">
         <v>28826.9</v>
@@ -16506,31 +16516,31 @@
         <v>36434.9</v>
       </c>
       <c r="H169" s="9">
-        <v>39070.2</v>
+        <v>39070.199999999997</v>
       </c>
       <c r="I169" s="9">
-        <v>38471.0</v>
+        <v>38471</v>
       </c>
       <c r="J169" s="9">
         <v>41360.6</v>
       </c>
       <c r="K169" s="9">
-        <v>40797.8</v>
+        <v>40797.800000000003</v>
       </c>
       <c r="L169" s="9">
         <v>33253.1</v>
       </c>
       <c r="M169" s="9">
-        <v>33895.7</v>
+        <v>33895.699999999997</v>
       </c>
       <c r="N169" s="9">
-        <v>35959.7</v>
+        <v>35959.699999999997</v>
       </c>
       <c r="O169" s="9">
         <v>38628.6</v>
       </c>
       <c r="P169" s="9">
-        <v>45393.0</v>
+        <v>45393</v>
       </c>
       <c r="Q169" s="9">
         <v>50296.3</v>
@@ -16548,7 +16558,7 @@
         <v>56033.11</v>
       </c>
       <c r="V169" s="9">
-        <v>54860.48</v>
+        <v>54860.480000000003</v>
       </c>
       <c r="W169" s="9">
         <v>47348.1</v>
@@ -16569,10 +16579,10 @@
         <v>66228.17</v>
       </c>
       <c r="AC169" s="9">
-        <v>69156.51</v>
+        <v>69156.509999999995</v>
       </c>
       <c r="AD169" s="9">
-        <v>59009.6</v>
+        <v>59009.599999999999</v>
       </c>
       <c r="AE169" s="9">
         <v>61425.14</v>
@@ -16581,116 +16591,117 @@
         <v>77300.94</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B170" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="I170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="J170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="K170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="L170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="M170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="N170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="O170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="P170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="R170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="T170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="U170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="V170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AC170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AD170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AE170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AF170" s="7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>